--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_season_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_season_LMB.xlsx
@@ -59,10 +59,13 @@
     <t xml:space="preserve">Fall</t>
   </si>
   <si>
-    <t xml:space="preserve">Shallow/Low SAV</t>
+    <t xml:space="preserve">Spring</t>
   </si>
   <si>
-    <t xml:space="preserve">Shallow/Dense SAV</t>
+    <t xml:space="preserve">Summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter</t>
   </si>
   <si>
     <t xml:space="preserve">Exposed/Low SAV</t>
@@ -71,13 +74,10 @@
     <t xml:space="preserve">Mod/Dense SAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Spring</t>
+    <t xml:space="preserve">Shallow/Dense SAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter</t>
+    <t xml:space="preserve">Shallow/Low SAV</t>
   </si>
 </sst>
 </file>
@@ -458,19 +458,19 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.792053175288242</v>
+        <v>0.463255548546161</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0171652917006135</v>
+        <v>0.070437769681039</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-10.7571013028042</v>
+        <v>-5.0606972690551</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000000000000000000000000839495432018162</v>
+        <v>0.0000639120799904971</v>
       </c>
     </row>
     <row r="3">
@@ -490,25 +490,25 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.682745628354143</v>
+        <v>0.389864352504574</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0639612853652458</v>
+        <v>0.0086263845636618</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.07368625257392</v>
+        <v>-42.5711634923262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00708004622721806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.09440145243348</v>
+        <v>1.27052720527855</v>
       </c>
       <c r="H4" t="n">
-        <v>0.461000567385577</v>
+        <v>0.0465555698664657</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35861533330623</v>
+        <v>6.5342297416272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.119851058745165</v>
+        <v>0.00000000978247354788073</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.553905249348899</v>
+        <v>0.841575138663937</v>
       </c>
       <c r="H5" t="n">
-        <v>0.111052271093449</v>
+        <v>0.12810785951602</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.94659414509081</v>
+        <v>-1.1330675724898</v>
       </c>
       <c r="L5" t="n">
-        <v>0.491580734002903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +604,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92734131621917</v>
+        <v>0.364616787914114</v>
       </c>
       <c r="H6" t="n">
-        <v>1.15233084199429</v>
+        <v>0.0566674296136069</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.72859270637646</v>
+        <v>-6.49164666176558</v>
       </c>
       <c r="L6" t="n">
-        <v>0.973159697860361</v>
+        <v>0.0000000129901897632431</v>
       </c>
     </row>
     <row r="7">
@@ -645,22 +645,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.39629815365883</v>
+        <v>0.30685242384802</v>
       </c>
       <c r="H7" t="n">
-        <v>0.151789449786353</v>
+        <v>0.0121459970778818</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.41656445452905</v>
+        <v>-29.8462017321846</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000150457964315907</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.16009995874686</v>
+        <v>0.553905249348899</v>
       </c>
       <c r="H8" t="n">
-        <v>0.107504973901174</v>
+        <v>0.111052271093449</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.60254915299846</v>
+        <v>-2.94659414509081</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.491580734002903</v>
       </c>
     </row>
     <row r="9">
@@ -718,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -727,16 +727,16 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.71546199304785</v>
+        <v>0.442187936113306</v>
       </c>
       <c r="H9" t="n">
-        <v>0.308892087518132</v>
+        <v>0.107063173585062</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.775532491524568</v>
+        <v>-3.37029360200426</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.114884843572146</v>
       </c>
     </row>
     <row r="10">
@@ -756,25 +756,25 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42994343566753</v>
+        <v>0.390453821010725</v>
       </c>
       <c r="H10" t="n">
-        <v>0.287389198175314</v>
+        <v>0.0460660931993072</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.77946027103915</v>
+        <v>-7.97116798561622</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.000000000000240487969124007</v>
       </c>
     </row>
     <row r="11">
@@ -794,63 +794,53 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.9986294863491</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.766024525503576</v>
-      </c>
-      <c r="I11" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>1.80669717927158</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
+      <c r="K11"/>
+      <c r="L11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.460779088176669</v>
+        <v>0.954522698111286</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0212698455671328</v>
+        <v>0.237929032056573</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-16.7856639521798</v>
+        <v>-0.186724447281166</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000475423933841898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,25 +860,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.399323821239136</v>
+        <v>0.842847586469475</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0518527742045534</v>
+        <v>0.155851351550119</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.06948333927725</v>
+        <v>-0.924604903671012</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00000000023793275021121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -908,25 +898,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.430999694127629</v>
+        <v>1.00151198359728</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0519550142846439</v>
+        <v>0.118761555668545</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-6.98200148410783</v>
+        <v>0.0127408744379135</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000000000445236203817168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -949,22 +939,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.534549801185171</v>
+        <v>0.348035000176451</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0510517290988226</v>
+        <v>0.0850075013346945</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-6.55814770081982</v>
+        <v>-4.32119884662583</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00000000833547603919715</v>
+        <v>0.00237431130144775</v>
       </c>
     </row>
     <row r="16">
@@ -984,25 +974,25 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.346824581585462</v>
+        <v>0.307316379679663</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0695050559663216</v>
+        <v>0.0375175460087529</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-5.28400537092889</v>
+        <v>-9.66469620783537</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0000193376000823378</v>
+        <v>0.000000000000000000065159883830843</v>
       </c>
     </row>
     <row r="17">
@@ -1025,35 +1015,25 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.463255548546161</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.070437769681039</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>-5.0606972690551</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0000639120799904971</v>
-      </c>
+      <c r="K17"/>
+      <c r="L17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1066,19 +1046,19 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.500002727377373</v>
+        <v>0.39629815365883</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0720920606345883</v>
+        <v>0.151789449786353</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.80736367248211</v>
+        <v>-2.41656445452905</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000233988466151548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1104,10 +1084,10 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1136,25 +1116,25 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.381163651269289</v>
+        <v>0.398760386843078</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0872233164333567</v>
+        <v>0.0397025870897384</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-4.21495586558438</v>
+        <v>-9.23411203010197</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00382235371094225</v>
+        <v>0.00000000000000000398468848197323</v>
       </c>
     </row>
     <row r="21">
@@ -1174,63 +1154,53 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.674891305107941</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0651189190863882</v>
-      </c>
-      <c r="I21" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>-4.07515534832971</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.00703549686220365</v>
-      </c>
+      <c r="K21"/>
+      <c r="L21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.584879352800492</v>
+        <v>0.868529657232156</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0892932525354454</v>
+        <v>0.194072476990045</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.5131418021049</v>
+        <v>-0.630807299916191</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0677546833954098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1253,22 +1223,22 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.442187936113306</v>
+        <v>0.860778436641528</v>
       </c>
       <c r="H23" t="n">
-        <v>0.107063173585062</v>
+        <v>0.145468995468504</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.37029360200426</v>
+        <v>-0.88710520052868</v>
       </c>
       <c r="L23" t="n">
-        <v>0.114884843572146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1288,25 +1258,25 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.631274190896859</v>
+        <v>1.02281828097736</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0914318901193052</v>
+        <v>0.102660730515224</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.17608639581767</v>
+        <v>0.22478566024833</v>
       </c>
       <c r="L24" t="n">
-        <v>0.228393024571128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1326,25 +1296,25 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.507985063809976</v>
+        <v>0.316680493828135</v>
       </c>
       <c r="H25" t="n">
-        <v>0.109668758144487</v>
+        <v>0.0689859582331073</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.13726472565291</v>
+        <v>-5.27844868377428</v>
       </c>
       <c r="L25" t="n">
-        <v>0.260914079081402</v>
+        <v>0.0000199331673610754</v>
       </c>
     </row>
     <row r="26">
@@ -1364,25 +1334,25 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.836344391194534</v>
+        <v>0.313854268673967</v>
       </c>
       <c r="H26" t="n">
-        <v>0.209887350453006</v>
+        <v>0.0327597967700728</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.712130196951469</v>
+        <v>-11.1021033008176</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.0000000000000000000000000187464767835489</v>
       </c>
     </row>
     <row r="27">
@@ -1402,63 +1372,53 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.798309704833247</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.250526421324425</v>
-      </c>
-      <c r="I27" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
       <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>-0.717793236562092</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
+      <c r="K27"/>
+      <c r="L27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.726389907412225</v>
+        <v>1.16009995874686</v>
       </c>
       <c r="H28" t="n">
-        <v>0.213366238572908</v>
+        <v>0.107504973901174</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.08828773306135</v>
+        <v>1.60254915299846</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1478,25 +1438,25 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.96505639152819</v>
+        <v>0.534549801185171</v>
       </c>
       <c r="H29" t="n">
-        <v>0.213587120197166</v>
+        <v>0.0510517290988226</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.160711199669333</v>
+        <v>-6.55814770081982</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.00000000833547603919715</v>
       </c>
     </row>
     <row r="30">
@@ -1516,25 +1476,25 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.902686385379293</v>
+        <v>0.452759606329608</v>
       </c>
       <c r="H30" t="n">
-        <v>0.222306065158638</v>
+        <v>0.0406834038810314</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.415720157340761</v>
+        <v>-8.81843565913269</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.000000000000000177586899873358</v>
       </c>
     </row>
     <row r="31">
@@ -1554,25 +1514,25 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.16895712046384</v>
+        <v>1.99031246382739</v>
       </c>
       <c r="H31" t="n">
-        <v>0.481245417298121</v>
+        <v>0.180833077451321</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1541,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.379199944432666</v>
+        <v>7.57557995436073</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0.00000000000547016061932409</v>
       </c>
     </row>
     <row r="32">
@@ -1592,25 +1552,25 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.11579610460154</v>
+        <v>1.15389832428938</v>
       </c>
       <c r="H32" t="n">
-        <v>0.505186596416206</v>
+        <v>0.149582578547151</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.242001095393749</v>
+        <v>1.10424620907262</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1630,25 +1590,25 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.01527392715555</v>
+        <v>0.977343083640352</v>
       </c>
       <c r="H33" t="n">
-        <v>0.445781864547212</v>
+        <v>0.122563213525858</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1657,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0345235762515156</v>
+        <v>-0.182748861494858</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1668,25 +1628,25 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.34885766246936</v>
+        <v>1.16132599305626</v>
       </c>
       <c r="H34" t="n">
-        <v>0.531884279235623</v>
+        <v>0.104679062532345</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.758917946520228</v>
+        <v>1.65926935405081</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1706,25 +1666,25 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.26168321189763</v>
+        <v>0.420730700581871</v>
       </c>
       <c r="H35" t="n">
-        <v>0.51583660679236</v>
+        <v>0.0424017749419911</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1733,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0.568540716642622</v>
+        <v>-8.59050797442562</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.00000000000000132476060084141</v>
       </c>
     </row>
     <row r="36">
@@ -1744,25 +1704,25 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.558280617904708</v>
+        <v>0.35635569584702</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1353893475858</v>
+        <v>0.0340150039240771</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1771,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.40357290631623</v>
+        <v>-10.8098484384614</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0.000000000000000000000000473046107147273</v>
       </c>
     </row>
     <row r="37">
@@ -1785,22 +1745,22 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.389864352504574</v>
+        <v>1.56652486901375</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0086263845636618</v>
+        <v>0.150993570953313</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1809,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-42.5711634923262</v>
+        <v>4.65682008167036</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.000491330198981826</v>
       </c>
     </row>
     <row r="38">
@@ -1826,19 +1786,19 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.438050903633672</v>
+        <v>0.792053175288242</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00827255623182394</v>
+        <v>0.0171652917006135</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1847,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-43.70789820294</v>
+        <v>-10.7571013028042</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.000000000000000000000000839495432018162</v>
       </c>
     </row>
     <row r="39">
@@ -1858,25 +1818,25 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.492219922434747</v>
+        <v>0.500002727377373</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0127957526355208</v>
+        <v>0.0720920606345883</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1885,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-27.2668668215145</v>
+        <v>-4.80736367248211</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160451348286546</v>
+        <v>0.000233988466151548</v>
       </c>
     </row>
     <row r="40">
@@ -1896,25 +1856,25 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.553057442733258</v>
+        <v>0.438050903633672</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0128660639150117</v>
+        <v>0.00827255623182394</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1923,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-25.4601780156932</v>
+        <v>-43.70789820294</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000083324707495874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1934,25 +1894,25 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.390276374820906</v>
+        <v>1.44054420421248</v>
       </c>
       <c r="H41" t="n">
-        <v>0.015059576271673</v>
+        <v>0.0244237929243031</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1961,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-24.3838928856401</v>
+        <v>21.5293682085743</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000387834992888561</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126458531283029</v>
       </c>
     </row>
     <row r="42">
@@ -1972,25 +1932,25 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.336061000231139</v>
+        <v>1.0793237748507</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0312238823792876</v>
+        <v>0.168246651562405</v>
       </c>
       <c r="I42" t="e">
         <v>#NUM!</v>
@@ -1999,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-11.7365913474218</v>
+        <v>0.489696925728926</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0000000000000000000000000000126615180046726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2010,25 +1970,25 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.377597551254853</v>
+        <v>0.945592351798939</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0348991410592149</v>
+        <v>0.143632160248858</v>
       </c>
       <c r="I43" t="e">
         <v>#NUM!</v>
@@ -2037,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.5375715864906</v>
+        <v>-0.368301599050301</v>
       </c>
       <c r="L43" t="n">
-        <v>0.00000000000000000000000887042553527905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2051,22 +2011,22 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.398760386843078</v>
+        <v>1.12359824851782</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0397025870897384</v>
+        <v>0.0254412679977403</v>
       </c>
       <c r="I44" t="e">
         <v>#NUM!</v>
@@ -2075,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>-9.23411203010197</v>
+        <v>5.1467534854435</v>
       </c>
       <c r="L44" t="n">
-        <v>0.00000000000000000398468848197323</v>
+        <v>0.0000405500866557851</v>
       </c>
     </row>
     <row r="45">
@@ -2086,25 +2046,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.343729334559944</v>
+        <v>0.393539567905398</v>
       </c>
       <c r="H45" t="n">
-        <v>0.040741077958616</v>
+        <v>0.0581374567228049</v>
       </c>
       <c r="I45" t="e">
         <v>#NUM!</v>
@@ -2113,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>-9.00979631315017</v>
+        <v>-6.31270538540554</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0000000000000000315852514733343</v>
+        <v>0.0000000419524769078021</v>
       </c>
     </row>
     <row r="46">
@@ -2127,22 +2087,22 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.452759606329608</v>
+        <v>0.344778845989082</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0406834038810314</v>
+        <v>0.0130897833279729</v>
       </c>
       <c r="I46" t="e">
         <v>#NUM!</v>
@@ -2151,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-8.81843565913269</v>
+        <v>-28.0477122337752</v>
       </c>
       <c r="L46" t="n">
-        <v>0.000000000000000177586899873358</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000651718457038907</v>
       </c>
     </row>
     <row r="47">
@@ -2165,22 +2125,22 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.390453821010725</v>
+        <v>1.13381610266004</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0460660931993072</v>
+        <v>0.0418577804545217</v>
       </c>
       <c r="I47" t="e">
         <v>#NUM!</v>
@@ -2189,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.97116798561622</v>
+        <v>3.40187314114622</v>
       </c>
       <c r="L47" t="n">
-        <v>0.000000000000240487969124007</v>
+        <v>0.102396315142094</v>
       </c>
     </row>
     <row r="48">
@@ -2200,25 +2160,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.336569118951174</v>
+        <v>0.836344391194534</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0472337126827713</v>
+        <v>0.209887350453006</v>
       </c>
       <c r="I48" t="e">
         <v>#NUM!</v>
@@ -2227,10 +2187,10 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.75944783381876</v>
+        <v>-0.712130196951469</v>
       </c>
       <c r="L48" t="n">
-        <v>0.00000000000130508911919917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2238,25 +2198,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.503451534927516</v>
+        <v>0.703846646990345</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0506129215088401</v>
+        <v>0.141486578449387</v>
       </c>
       <c r="I49" t="e">
         <v>#NUM!</v>
@@ -2265,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.82637123052554</v>
+        <v>-1.74707219098578</v>
       </c>
       <c r="L49" t="n">
-        <v>0.00000000133246772477316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2276,25 +2236,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.571627790223606</v>
+        <v>2.29376270900487</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0519617010943201</v>
+        <v>0.465248514252146</v>
       </c>
       <c r="I50" t="e">
         <v>#NUM!</v>
@@ -2303,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>-6.1524676055804</v>
+        <v>4.0930105134186</v>
       </c>
       <c r="L50" t="n">
-        <v>0.000000116718432694709</v>
+        <v>0.00651486861332883</v>
       </c>
     </row>
     <row r="51">
@@ -2314,25 +2274,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.492964150883723</v>
+        <v>0.881671164372688</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0585617221455506</v>
+        <v>0.213568086908395</v>
       </c>
       <c r="I51" t="e">
         <v>#NUM!</v>
@@ -2341,10 +2301,10 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.95410808673812</v>
+        <v>-0.519900931502778</v>
       </c>
       <c r="L51" t="n">
-        <v>0.000000400085741116448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2352,83 +2312,63 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.703846646990345</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.141486578449387</v>
-      </c>
-      <c r="I52" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
       <c r="J52" t="n">
         <v>1</v>
       </c>
-      <c r="K52" t="n">
-        <v>-1.74707219098578</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
+      <c r="K52"/>
+      <c r="L52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.704910851575595</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.163332116468453</v>
-      </c>
-      <c r="I53" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
       <c r="J53" t="n">
         <v>1</v>
       </c>
-      <c r="K53" t="n">
-        <v>-1.50917043334102</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
+      <c r="K53"/>
+      <c r="L53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2437,16 +2377,16 @@
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.719907217546341</v>
+        <v>0.798309704833247</v>
       </c>
       <c r="H54" t="n">
-        <v>0.160453404666645</v>
+        <v>0.250526421324425</v>
       </c>
       <c r="I54" t="e">
         <v>#NUM!</v>
@@ -2455,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>-1.47447930926265</v>
+        <v>-0.717793236562092</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -2466,25 +2406,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.817395406275378</v>
+        <v>0.704910851575595</v>
       </c>
       <c r="H55" t="n">
-        <v>0.178966744604125</v>
+        <v>0.163332116468453</v>
       </c>
       <c r="I55" t="e">
         <v>#NUM!</v>
@@ -2493,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.920915999544505</v>
+        <v>-1.50917043334102</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2504,38 +2444,28 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.790840859783491</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.158776943225149</v>
-      </c>
-      <c r="I56" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
       <c r="J56" t="n">
         <v>1</v>
       </c>
-      <c r="K56" t="n">
-        <v>-1.16879404541167</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
+      <c r="K56"/>
+      <c r="L56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -2545,22 +2475,22 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.983765250746551</v>
+        <v>0.883004236711413</v>
       </c>
       <c r="H57" t="n">
-        <v>0.377072974781688</v>
+        <v>0.233112489352881</v>
       </c>
       <c r="I57" t="e">
         <v>#NUM!</v>
@@ -2569,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0427032637848179</v>
+        <v>-0.471309151927807</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2583,35 +2513,25 @@
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.985252687669254</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.394340697349193</v>
-      </c>
-      <c r="I58" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
       <c r="J58" t="n">
         <v>1</v>
       </c>
-      <c r="K58" t="n">
-        <v>-0.037120267558031</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
+      <c r="K58"/>
+      <c r="L58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -2621,35 +2541,25 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="n">
-        <v>1.00621308265385</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.397655003697645</v>
-      </c>
-      <c r="I59" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
       <c r="J59" t="n">
         <v>1</v>
       </c>
-      <c r="K59" t="n">
-        <v>0.0156727413067346</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
+      <c r="K59"/>
+      <c r="L59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -2662,19 +2572,19 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.14247215675747</v>
+        <v>0.71546199304785</v>
       </c>
       <c r="H60" t="n">
-        <v>0.448985700516759</v>
+        <v>0.308892087518132</v>
       </c>
       <c r="I60" t="e">
         <v>#NUM!</v>
@@ -2683,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0.338921655417524</v>
+        <v>-0.775532491524568</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -2700,19 +2610,19 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.10535691269152</v>
+        <v>0.726389907412225</v>
       </c>
       <c r="H61" t="n">
-        <v>0.423534099538124</v>
+        <v>0.213366238572908</v>
       </c>
       <c r="I61" t="e">
         <v>#NUM!</v>
@@ -2721,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.261423346209572</v>
+        <v>-1.08828773306135</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
@@ -2732,25 +2642,25 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.81874683311286</v>
+        <v>0.719907217546341</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0396718461350278</v>
+        <v>0.160453404666645</v>
       </c>
       <c r="I62" t="e">
         <v>#NUM!</v>
@@ -2759,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>27.4219468096522</v>
+        <v>-1.47447930926265</v>
       </c>
       <c r="L62" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000229736813822015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2770,63 +2680,53 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
-      <c r="G63" t="n">
-        <v>1.44054420421248</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.0244237929243031</v>
-      </c>
-      <c r="I63" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="J63" t="n">
         <v>1</v>
       </c>
-      <c r="K63" t="n">
-        <v>21.5293682085743</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126458531283029</v>
-      </c>
+      <c r="K63"/>
+      <c r="L63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1.71563876786731</v>
+        <v>0.909909904657811</v>
       </c>
       <c r="H64" t="n">
-        <v>0.050866218963417</v>
+        <v>0.265957496064995</v>
       </c>
       <c r="I64" t="e">
         <v>#NUM!</v>
@@ -2835,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>18.2061277343798</v>
+        <v>-0.323000154231244</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000070602255162233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2846,25 +2746,25 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1.60409331711369</v>
+        <v>0.901789384730976</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0628511441722006</v>
+        <v>0.228250237377814</v>
       </c>
       <c r="I65" t="e">
         <v>#NUM!</v>
@@ -2873,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>12.0606910080066</v>
+        <v>-0.408419431566183</v>
       </c>
       <c r="L65" t="n">
-        <v>0.000000000000000000000000000000260631871718951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2884,25 +2784,25 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2.51285207347736</v>
+        <v>1.02127413124259</v>
       </c>
       <c r="H66" t="n">
-        <v>0.23090684583024</v>
+        <v>0.154074857514319</v>
       </c>
       <c r="I66" t="e">
         <v>#NUM!</v>
@@ -2911,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>10.0273688696605</v>
+        <v>0.139535015874327</v>
       </c>
       <c r="L66" t="n">
-        <v>0.00000000000000000000176798859026283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2922,139 +2822,109 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="n">
-        <v>1.99031246382739</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.180833077451321</v>
-      </c>
-      <c r="I67" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
       <c r="J67" t="n">
         <v>1</v>
       </c>
-      <c r="K67" t="n">
-        <v>7.57557995436073</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.00000000000547016061932409</v>
-      </c>
+      <c r="K67"/>
+      <c r="L67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="n">
-        <v>1.27052720527855</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0465555698664657</v>
-      </c>
-      <c r="I68" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
       <c r="J68" t="n">
         <v>1</v>
       </c>
-      <c r="K68" t="n">
-        <v>6.5342297416272</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.00000000978247354788073</v>
-      </c>
+      <c r="K68"/>
+      <c r="L68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="n">
-        <v>3.59323632727249</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.788192073904583</v>
-      </c>
-      <c r="I69" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
       <c r="J69" t="n">
         <v>1</v>
       </c>
-      <c r="K69" t="n">
-        <v>5.83099077439622</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.000000843018239071665</v>
-      </c>
+      <c r="K69"/>
+      <c r="L69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>2.60070509515083</v>
+        <v>2.09440145243348</v>
       </c>
       <c r="H70" t="n">
-        <v>0.521569102227088</v>
+        <v>0.461000567385577</v>
       </c>
       <c r="I70" t="e">
         <v>#NUM!</v>
@@ -3063,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>4.76582808240288</v>
+        <v>3.35861533330623</v>
       </c>
       <c r="L70" t="n">
-        <v>0.000287761757173148</v>
+        <v>0.119851058745165</v>
       </c>
     </row>
     <row r="71">
@@ -3080,19 +2950,19 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>5.02226024888533</v>
+        <v>0.96505639152819</v>
       </c>
       <c r="H71" t="n">
-        <v>1.97486146235874</v>
+        <v>0.213587120197166</v>
       </c>
       <c r="I71" t="e">
         <v>#NUM!</v>
@@ -3101,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>4.10425031453434</v>
+        <v>-0.160711199669333</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0062061097719924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3112,25 +2982,25 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2.29376270900487</v>
+        <v>0.817395406275378</v>
       </c>
       <c r="H72" t="n">
-        <v>0.465248514252146</v>
+        <v>0.178966744604125</v>
       </c>
       <c r="I72" t="e">
         <v>#NUM!</v>
@@ -3139,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>4.0930105134186</v>
+        <v>-0.920915999544505</v>
       </c>
       <c r="L72" t="n">
-        <v>0.00651486861332883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3156,19 +3026,19 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>3.6350010488634</v>
+        <v>3.59323632727249</v>
       </c>
       <c r="H73" t="n">
-        <v>1.39238511568706</v>
+        <v>0.788192073904583</v>
       </c>
       <c r="I73" t="e">
         <v>#NUM!</v>
@@ -3177,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>3.36930240643484</v>
+        <v>5.83099077439622</v>
       </c>
       <c r="L73" t="n">
-        <v>0.115298811937383</v>
+        <v>0.000000843018239071665</v>
       </c>
     </row>
     <row r="74">
@@ -3191,22 +3061,22 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>3.20598820243896</v>
+        <v>1.20887468320302</v>
       </c>
       <c r="H74" t="n">
-        <v>1.23189967569347</v>
+        <v>0.276481800133027</v>
       </c>
       <c r="I74" t="e">
         <v>#NUM!</v>
@@ -3215,10 +3085,10 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>3.03193648755563</v>
+        <v>0.829390337335261</v>
       </c>
       <c r="L74" t="n">
-        <v>0.371775197375971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3226,25 +3096,25 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1.09518769973147</v>
+        <v>1.02390764051418</v>
       </c>
       <c r="H75" t="n">
-        <v>0.107434944544456</v>
+        <v>0.231751774957109</v>
       </c>
       <c r="I75" t="e">
         <v>#NUM!</v>
@@ -3253,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0.926893745686529</v>
+        <v>0.104384000915977</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -3264,25 +3134,25 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.24174144939075</v>
+        <v>1.1595727380964</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1151718244272</v>
+        <v>0.160768909527326</v>
       </c>
       <c r="I76" t="e">
         <v>#NUM!</v>
@@ -3291,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.33438507467381</v>
+        <v>1.06784706707664</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
@@ -3302,16 +3172,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3330,16 +3200,16 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3358,16 +3228,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3386,28 +3256,38 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+      <c r="G80" t="n">
+        <v>1.42994343566753</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.287389198175314</v>
+      </c>
+      <c r="I80" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J80" t="n">
         <v>1</v>
       </c>
-      <c r="K80"/>
-      <c r="L80"/>
+      <c r="K80" t="n">
+        <v>1.77946027103915</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -3420,22 +3300,32 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
+      <c r="G81" t="n">
+        <v>0.902686385379293</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.222306065158638</v>
+      </c>
+      <c r="I81" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="K81" t="n">
+        <v>-0.415720157340761</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -3448,273 +3338,293 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
+      <c r="G82" t="n">
+        <v>0.790840859783491</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.158776943225149</v>
+      </c>
+      <c r="I82" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J82" t="n">
         <v>1</v>
       </c>
-      <c r="K82"/>
-      <c r="L82"/>
+      <c r="K82" t="n">
+        <v>-1.16879404541167</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
+      <c r="G83" t="n">
+        <v>2.60070509515083</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.521569102227088</v>
+      </c>
+      <c r="I83" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J83" t="n">
         <v>1</v>
       </c>
-      <c r="K83"/>
-      <c r="L83"/>
+      <c r="K83" t="n">
+        <v>4.76582808240288</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.000287761757173148</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
+      <c r="G84" t="n">
+        <v>1.13074710217615</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.276519792222659</v>
+      </c>
+      <c r="I84" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J84" t="n">
         <v>1</v>
       </c>
-      <c r="K84"/>
-      <c r="L84"/>
+      <c r="K84" t="n">
+        <v>0.502476086853919</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
+      <c r="G85" t="n">
+        <v>0.990644176057817</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.239761027080466</v>
+      </c>
+      <c r="I85" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
-      <c r="K85"/>
-      <c r="L85"/>
+      <c r="K85" t="n">
+        <v>-0.0388383433477181</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
+      <c r="G86" t="n">
+        <v>1.12190195116989</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.132290523463386</v>
+      </c>
+      <c r="I86" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J86" t="n">
         <v>1</v>
       </c>
-      <c r="K86"/>
-      <c r="L86"/>
+      <c r="K86" t="n">
+        <v>0.97548361716595</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.954522698111286</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.237929032056573</v>
-      </c>
-      <c r="I87" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
       <c r="J87" t="n">
         <v>1</v>
       </c>
-      <c r="K87" t="n">
-        <v>-0.186724447281166</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
+      <c r="K87"/>
+      <c r="L87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.868529657232156</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.194072476990045</v>
-      </c>
-      <c r="I88" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
       <c r="J88" t="n">
         <v>1</v>
       </c>
-      <c r="K88" t="n">
-        <v>-0.630807299916191</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+      <c r="K88"/>
+      <c r="L88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
-      <c r="G89" t="n">
-        <v>1.15389832428938</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.149582578547151</v>
-      </c>
-      <c r="I89" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
       <c r="J89" t="n">
         <v>1</v>
       </c>
-      <c r="K89" t="n">
-        <v>1.10424620907262</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="K89"/>
+      <c r="L89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1.0793237748507</v>
+        <v>1.16895712046384</v>
       </c>
       <c r="H90" t="n">
-        <v>0.168246651562405</v>
+        <v>0.481245417298121</v>
       </c>
       <c r="I90" t="e">
         <v>#NUM!</v>
@@ -3723,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>0.489696925728926</v>
+        <v>0.379199944432666</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -3734,25 +3644,25 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.909909904657811</v>
+        <v>0.983765250746551</v>
       </c>
       <c r="H91" t="n">
-        <v>0.265957496064995</v>
+        <v>0.377072974781688</v>
       </c>
       <c r="I91" t="e">
         <v>#NUM!</v>
@@ -3761,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.323000154231244</v>
+        <v>-0.0427032637848179</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -3772,25 +3682,25 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1.20887468320302</v>
+        <v>3.20598820243896</v>
       </c>
       <c r="H92" t="n">
-        <v>0.276481800133027</v>
+        <v>1.23189967569347</v>
       </c>
       <c r="I92" t="e">
         <v>#NUM!</v>
@@ -3799,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0.829390337335261</v>
+        <v>3.03193648755563</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0.371775197375971</v>
       </c>
     </row>
     <row r="93">
@@ -3810,25 +3720,25 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1.13074710217615</v>
+        <v>0.968965344656026</v>
       </c>
       <c r="H93" t="n">
-        <v>0.276519792222659</v>
+        <v>0.208884547801499</v>
       </c>
       <c r="I93" t="e">
         <v>#NUM!</v>
@@ -3837,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0.502476086853919</v>
+        <v>-0.146243559599855</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -3848,101 +3758,81 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
-      <c r="G94" t="n">
-        <v>1.32856525356501</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.266061386558681</v>
-      </c>
-      <c r="I94" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
       <c r="J94" t="n">
         <v>1</v>
       </c>
-      <c r="K94" t="n">
-        <v>1.41863825599299</v>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
+      <c r="K94"/>
+      <c r="L94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="n">
-        <v>1.24270226798047</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.271124052874909</v>
-      </c>
-      <c r="I95" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
       <c r="J95" t="n">
         <v>1</v>
       </c>
-      <c r="K95" t="n">
-        <v>0.995944870090187</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
+      <c r="K95"/>
+      <c r="L95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.935371645951038</v>
+        <v>1.11579610460154</v>
       </c>
       <c r="H96" t="n">
-        <v>0.112533954650194</v>
+        <v>0.505186596416206</v>
       </c>
       <c r="I96" t="e">
         <v>#NUM!</v>
@@ -3951,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.55532962664232</v>
+        <v>0.242001095393749</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -3962,25 +3852,25 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.846992376249654</v>
+        <v>0.985252687669254</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0376197812265881</v>
+        <v>0.394340697349193</v>
       </c>
       <c r="I97" t="e">
         <v>#NUM!</v>
@@ -3989,10 +3879,10 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>-3.73884658812189</v>
+        <v>-0.037120267558031</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0282845734722822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4000,63 +3890,53 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.729332143871704</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.0698409226270485</v>
-      </c>
-      <c r="I98" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
       <c r="J98" t="n">
         <v>1</v>
       </c>
-      <c r="K98" t="n">
-        <v>-3.29600761428226</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.150046116523697</v>
-      </c>
+      <c r="K98"/>
+      <c r="L98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.841575138663937</v>
+        <v>0.970430404363478</v>
       </c>
       <c r="H99" t="n">
-        <v>0.12810785951602</v>
+        <v>0.232685409310198</v>
       </c>
       <c r="I99" t="e">
         <v>#NUM!</v>
@@ -4065,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.1330675724898</v>
+        <v>-0.125182070007539</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4076,101 +3956,81 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.842847586469475</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.155851351550119</v>
-      </c>
-      <c r="I100" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
       <c r="J100" t="n">
         <v>1</v>
       </c>
-      <c r="K100" t="n">
-        <v>-0.924604903671012</v>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
+      <c r="K100"/>
+      <c r="L100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
-      <c r="G101" t="n">
-        <v>0.860778436641528</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.145468995468504</v>
-      </c>
-      <c r="I101" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
       <c r="J101" t="n">
         <v>1</v>
       </c>
-      <c r="K101" t="n">
-        <v>-0.88710520052868</v>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
+      <c r="K101"/>
+      <c r="L101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.977343083640352</v>
+        <v>1.01527392715555</v>
       </c>
       <c r="H102" t="n">
-        <v>0.122563213525858</v>
+        <v>0.445781864547212</v>
       </c>
       <c r="I102" t="e">
         <v>#NUM!</v>
@@ -4179,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.182748861494858</v>
+        <v>0.0345235762515156</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -4190,25 +4050,25 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0.945592351798939</v>
+        <v>1.00621308265385</v>
       </c>
       <c r="H103" t="n">
-        <v>0.143632160248858</v>
+        <v>0.397655003697645</v>
       </c>
       <c r="I103" t="e">
         <v>#NUM!</v>
@@ -4217,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.368301599050301</v>
+        <v>0.0156727413067346</v>
       </c>
       <c r="L103" t="n">
         <v>1</v>
@@ -4228,63 +4088,53 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
-      <c r="G104" t="n">
-        <v>0.881671164372688</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.213568086908395</v>
-      </c>
-      <c r="I104" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
       <c r="J104" t="n">
         <v>1</v>
       </c>
-      <c r="K104" t="n">
-        <v>-0.519900931502778</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
+      <c r="K104"/>
+      <c r="L104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.883004236711413</v>
+        <v>0.991075468147708</v>
       </c>
       <c r="H105" t="n">
-        <v>0.233112489352881</v>
+        <v>0.22569638388361</v>
       </c>
       <c r="I105" t="e">
         <v>#NUM!</v>
@@ -4293,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.471309151927807</v>
+        <v>-0.0393652262585486</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
@@ -4304,101 +4154,81 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
-      <c r="G106" t="n">
-        <v>0.901789384730976</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.228250237377814</v>
-      </c>
-      <c r="I106" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
       <c r="J106" t="n">
         <v>1</v>
       </c>
-      <c r="K106" t="n">
-        <v>-0.408419431566183</v>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
+      <c r="K106"/>
+      <c r="L106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
-      <c r="G107" t="n">
-        <v>1.02390764051418</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.231751774957109</v>
-      </c>
-      <c r="I107" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
       <c r="J107" t="n">
         <v>1</v>
       </c>
-      <c r="K107" t="n">
-        <v>0.104384000915977</v>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
+      <c r="K107"/>
+      <c r="L107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.990644176057817</v>
+        <v>2.92734131621917</v>
       </c>
       <c r="H108" t="n">
-        <v>0.239761027080466</v>
+        <v>1.15233084199429</v>
       </c>
       <c r="I108" t="e">
         <v>#NUM!</v>
@@ -4407,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.0388383433477181</v>
+        <v>2.72859270637646</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0.973159697860361</v>
       </c>
     </row>
     <row r="109">
@@ -4418,25 +4248,25 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.968965344656026</v>
+        <v>1.34885766246936</v>
       </c>
       <c r="H109" t="n">
-        <v>0.208884547801499</v>
+        <v>0.531884279235623</v>
       </c>
       <c r="I109" t="e">
         <v>#NUM!</v>
@@ -4445,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.146243559599855</v>
+        <v>0.758917946520228</v>
       </c>
       <c r="L109" t="n">
         <v>1</v>
@@ -4456,25 +4286,25 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.970430404363478</v>
+        <v>1.14247215675747</v>
       </c>
       <c r="H110" t="n">
-        <v>0.232685409310198</v>
+        <v>0.448985700516759</v>
       </c>
       <c r="I110" t="e">
         <v>#NUM!</v>
@@ -4483,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>-0.125182070007539</v>
+        <v>0.338921655417524</v>
       </c>
       <c r="L110" t="n">
         <v>1</v>
@@ -4494,25 +4324,25 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.991075468147708</v>
+        <v>5.02226024888533</v>
       </c>
       <c r="H111" t="n">
-        <v>0.22569638388361</v>
+        <v>1.97486146235874</v>
       </c>
       <c r="I111" t="e">
         <v>#NUM!</v>
@@ -4521,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.0393652262585486</v>
+        <v>4.10425031453434</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0.0062061097719924</v>
       </c>
     </row>
     <row r="112">
@@ -4532,25 +4362,25 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.12528464111976</v>
+        <v>1.32856525356501</v>
       </c>
       <c r="H112" t="n">
-        <v>0.222301907033854</v>
+        <v>0.266061386558681</v>
       </c>
       <c r="I112" t="e">
         <v>#NUM!</v>
@@ -4559,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0.597494281118434</v>
+        <v>1.41863825599299</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
@@ -4570,25 +4400,25 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.08872776412997</v>
+        <v>1.12528464111976</v>
       </c>
       <c r="H113" t="n">
-        <v>0.234450732406988</v>
+        <v>0.222301907033854</v>
       </c>
       <c r="I113" t="e">
         <v>#NUM!</v>
@@ -4597,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>0.394763353839793</v>
+        <v>0.597494281118434</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
@@ -4608,25 +4438,25 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.730434882110206</v>
+        <v>1.13541771266207</v>
       </c>
       <c r="H114" t="n">
-        <v>0.103820143007531</v>
+        <v>0.132755709439562</v>
       </c>
       <c r="I114" t="e">
         <v>#NUM!</v>
@@ -4635,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>-2.20998245175546</v>
+        <v>1.0861961794157</v>
       </c>
       <c r="L114" t="n">
         <v>1</v>
@@ -4646,139 +4476,109 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
-      <c r="G115" t="n">
-        <v>0.745974249656386</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.0903728100044646</v>
-      </c>
-      <c r="I115" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
       <c r="J115" t="n">
         <v>1</v>
       </c>
-      <c r="K115" t="n">
-        <v>-2.41907211518748</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
+      <c r="K115"/>
+      <c r="L115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
-      <c r="G116" t="n">
-        <v>0.819476319441991</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.0780637732669479</v>
-      </c>
-      <c r="I116" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
       <c r="J116" t="n">
         <v>1</v>
       </c>
-      <c r="K116" t="n">
-        <v>-2.08994968254212</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
+      <c r="K116"/>
+      <c r="L116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
-      <c r="G117" t="n">
-        <v>0.779724451803493</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.112566683391776</v>
-      </c>
-      <c r="I117" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
       <c r="J117" t="n">
         <v>1</v>
       </c>
-      <c r="K117" t="n">
-        <v>-1.72348416820541</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
+      <c r="K117"/>
+      <c r="L117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.780903382385017</v>
+        <v>1.9986294863491</v>
       </c>
       <c r="H118" t="n">
-        <v>0.139389990698617</v>
+        <v>0.766024525503576</v>
       </c>
       <c r="I118" t="e">
         <v>#NUM!</v>
@@ -4787,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>-1.38546827915147</v>
+        <v>1.80669717927158</v>
       </c>
       <c r="L118" t="n">
         <v>1</v>
@@ -4798,25 +4598,25 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.79751642342966</v>
+        <v>1.26168321189763</v>
       </c>
       <c r="H119" t="n">
-        <v>0.129162657508187</v>
+        <v>0.51583660679236</v>
       </c>
       <c r="I119" t="e">
         <v>#NUM!</v>
@@ -4825,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>-1.39700102116197</v>
+        <v>0.568540716642622</v>
       </c>
       <c r="L119" t="n">
         <v>1</v>
@@ -4836,25 +4636,25 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.905514273300935</v>
+        <v>1.10535691269152</v>
       </c>
       <c r="H120" t="n">
-        <v>0.10480549856017</v>
+        <v>0.423534099538124</v>
       </c>
       <c r="I120" t="e">
         <v>#NUM!</v>
@@ -4863,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.85753438708141</v>
+        <v>0.261423346209572</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
@@ -4874,25 +4674,25 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.87609702837292</v>
+        <v>3.6350010488634</v>
       </c>
       <c r="H121" t="n">
-        <v>0.126177228841068</v>
+        <v>1.39238511568706</v>
       </c>
       <c r="I121" t="e">
         <v>#NUM!</v>
@@ -4901,10 +4701,10 @@
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.918460022887777</v>
+        <v>3.36930240643484</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>0.115298811937383</v>
       </c>
     </row>
     <row r="122">
@@ -4912,25 +4712,25 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1.12359824851782</v>
+        <v>1.24270226798047</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0254412679977403</v>
+        <v>0.271124052874909</v>
       </c>
       <c r="I122" t="e">
         <v>#NUM!</v>
@@ -4939,10 +4739,10 @@
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>5.1467534854435</v>
+        <v>0.995944870090187</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0000405500866557851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4950,25 +4750,25 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.00151198359728</v>
+        <v>1.08872776412997</v>
       </c>
       <c r="H123" t="n">
-        <v>0.118761555668545</v>
+        <v>0.234450732406988</v>
       </c>
       <c r="I123" t="e">
         <v>#NUM!</v>
@@ -4977,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0127408744379135</v>
+        <v>0.394763353839793</v>
       </c>
       <c r="L123" t="n">
         <v>1</v>
@@ -4988,25 +4788,25 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1.02281828097736</v>
+        <v>1.09853164478461</v>
       </c>
       <c r="H124" t="n">
-        <v>0.102660730515224</v>
+        <v>0.109530463698398</v>
       </c>
       <c r="I124" t="e">
         <v>#NUM!</v>
@@ -5015,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>0.22478566024833</v>
+        <v>0.942512889572572</v>
       </c>
       <c r="L124" t="n">
         <v>1</v>
@@ -5026,139 +4826,109 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
-      <c r="G125" t="n">
-        <v>1.16132599305626</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.104679062532345</v>
-      </c>
-      <c r="I125" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
       <c r="J125" t="n">
         <v>1</v>
       </c>
-      <c r="K125" t="n">
-        <v>1.65926935405081</v>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
+      <c r="K125"/>
+      <c r="L125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="n">
-        <v>1.02127413124259</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.154074857514319</v>
-      </c>
-      <c r="I126" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
       <c r="J126" t="n">
         <v>1</v>
       </c>
-      <c r="K126" t="n">
-        <v>0.139535015874327</v>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
+      <c r="K126"/>
+      <c r="L126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="n">
-        <v>1.1595727380964</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.160768909527326</v>
-      </c>
-      <c r="I127" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
       <c r="J127" t="n">
         <v>1</v>
       </c>
-      <c r="K127" t="n">
-        <v>1.06784706707664</v>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
+      <c r="K127"/>
+      <c r="L127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1.12190195116989</v>
+        <v>0.399323821239136</v>
       </c>
       <c r="H128" t="n">
-        <v>0.132290523463386</v>
+        <v>0.0518527742045534</v>
       </c>
       <c r="I128" t="e">
         <v>#NUM!</v>
@@ -5167,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>0.97548361716595</v>
+        <v>-7.06948333927725</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0.00000000023793275021121</v>
       </c>
     </row>
     <row r="129">
@@ -5178,25 +4948,25 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1.13541771266207</v>
+        <v>0.336061000231139</v>
       </c>
       <c r="H129" t="n">
-        <v>0.132755709439562</v>
+        <v>0.0312238823792876</v>
       </c>
       <c r="I129" t="e">
         <v>#NUM!</v>
@@ -5205,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>1.0861961794157</v>
+        <v>-11.7365913474218</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>0.0000000000000000000000000000126615180046726</v>
       </c>
     </row>
     <row r="130">
@@ -5216,25 +4986,25 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1.09853164478461</v>
+        <v>1.09518769973147</v>
       </c>
       <c r="H130" t="n">
-        <v>0.109530463698398</v>
+        <v>0.107434944544456</v>
       </c>
       <c r="I130" t="e">
         <v>#NUM!</v>
@@ -5243,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0.942512889572572</v>
+        <v>0.926893745686529</v>
       </c>
       <c r="L130" t="n">
         <v>1</v>
@@ -5254,25 +5024,25 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.967513217852681</v>
+        <v>0.729332143871704</v>
       </c>
       <c r="H131" t="n">
-        <v>0.086686141646245</v>
+        <v>0.0698409226270485</v>
       </c>
       <c r="I131" t="e">
         <v>#NUM!</v>
@@ -5281,10 +5051,10 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.368608833970359</v>
+        <v>-3.29600761428226</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>0.150046116523697</v>
       </c>
     </row>
     <row r="132">
@@ -5292,25 +5062,25 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.268575819576202</v>
+        <v>0.232755186416969</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0114383102368747</v>
+        <v>0.0298945645581557</v>
       </c>
       <c r="I132" t="e">
         <v>#NUM!</v>
@@ -5319,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>-30.8678187521653</v>
+        <v>-11.3499924215776</v>
       </c>
       <c r="L132" t="n">
-        <v>4.94255601441032e-207</v>
+        <v>0.0000000000000000000000000011347876775225</v>
       </c>
     </row>
     <row r="133">
@@ -5330,25 +5100,25 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.251218206419641</v>
+        <v>0.195880978283611</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0299003031552457</v>
+        <v>0.0178457322645557</v>
       </c>
       <c r="I133" t="e">
         <v>#NUM!</v>
@@ -5357,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.6066118629014</v>
+        <v>-17.8941709807443</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0000000000000000000000000000583590687661243</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000200324107414331</v>
       </c>
     </row>
     <row r="134">
@@ -5368,25 +5138,25 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E134" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.232755186416969</v>
+        <v>0.381163651269289</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0298945645581557</v>
+        <v>0.0872233164333567</v>
       </c>
       <c r="I134" t="e">
         <v>#NUM!</v>
@@ -5395,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.3499924215776</v>
+        <v>-4.21495586558438</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0000000000000000000000000011347876775225</v>
+        <v>0.00382235371094225</v>
       </c>
     </row>
     <row r="135">
@@ -5406,25 +5176,25 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.371074903235893</v>
+        <v>0.336569118951174</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0354684885361579</v>
+        <v>0.0472337126827713</v>
       </c>
       <c r="I135" t="e">
         <v>#NUM!</v>
@@ -5433,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>-10.3716176867184</v>
+        <v>-7.75944783381876</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0000000000000000000000510752272605162</v>
+        <v>0.00000000000130508911919917</v>
       </c>
     </row>
     <row r="136">
@@ -5444,63 +5214,53 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="n">
-        <v>0.420730700581871</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.0424017749419911</v>
-      </c>
-      <c r="I136" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
       <c r="J136" t="n">
         <v>1</v>
       </c>
-      <c r="K136" t="n">
-        <v>-8.59050797442562</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.00000000000000132476060084141</v>
-      </c>
+      <c r="K136"/>
+      <c r="L136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.202154782277737</v>
+        <v>0.730434882110206</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0403280607019368</v>
+        <v>0.103820143007531</v>
       </c>
       <c r="I137" t="e">
         <v>#NUM!</v>
@@ -5509,10 +5269,10 @@
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>-8.01400356530023</v>
+        <v>-2.20998245175546</v>
       </c>
       <c r="L137" t="n">
-        <v>0.000000000000169881236041996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5520,25 +5280,25 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.321583709261748</v>
+        <v>0.222170108538121</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0489126770356775</v>
+        <v>0.050662583321586</v>
       </c>
       <c r="I138" t="e">
         <v>#NUM!</v>
@@ -5547,10 +5307,10 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.45892279026196</v>
+        <v>-6.59684374843381</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0000000000133466036467655</v>
+        <v>0.00000000642604586508421</v>
       </c>
     </row>
     <row r="139">
@@ -5558,25 +5318,25 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.347092943010879</v>
+        <v>0.196177147109795</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0500632724735064</v>
+        <v>0.0272997744739375</v>
       </c>
       <c r="I139" t="e">
         <v>#NUM!</v>
@@ -5585,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>-7.33633227072719</v>
+        <v>-11.7041633718491</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0000000000335875733640793</v>
+        <v>0.000000000000000000000000000018566582768876</v>
       </c>
     </row>
     <row r="140">
@@ -5596,25 +5356,25 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.222170108538121</v>
+        <v>0.346824581585462</v>
       </c>
       <c r="H140" t="n">
-        <v>0.050662583321586</v>
+        <v>0.0695050559663216</v>
       </c>
       <c r="I140" t="e">
         <v>#NUM!</v>
@@ -5623,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>-6.59684374843381</v>
+        <v>-5.28400537092889</v>
       </c>
       <c r="L140" t="n">
-        <v>0.00000000642604586508421</v>
+        <v>0.0000193376000823378</v>
       </c>
     </row>
     <row r="141">
@@ -5634,25 +5394,25 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.364616787914114</v>
+        <v>0.343729334559944</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0566674296136069</v>
+        <v>0.040741077958616</v>
       </c>
       <c r="I141" t="e">
         <v>#NUM!</v>
@@ -5661,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>-6.49164666176558</v>
+        <v>-9.00979631315017</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0000000129901897632431</v>
+        <v>0.0000000000000000315852514733343</v>
       </c>
     </row>
     <row r="142">
@@ -5672,63 +5432,53 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
-      <c r="G142" t="n">
-        <v>0.393539567905398</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.0581374567228049</v>
-      </c>
-      <c r="I142" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
       <c r="J142" t="n">
         <v>1</v>
       </c>
-      <c r="K142" t="n">
-        <v>-6.31270538540554</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.0000000419524769078021</v>
-      </c>
+      <c r="K142"/>
+      <c r="L142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.279304988776552</v>
+        <v>0.745974249656386</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0601865685530694</v>
+        <v>0.0903728100044646</v>
       </c>
       <c r="I143" t="e">
         <v>#NUM!</v>
@@ -5737,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.91892543962051</v>
+        <v>-2.41907211518748</v>
       </c>
       <c r="L143" t="n">
-        <v>0.000000495799284148098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5748,25 +5498,25 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.316680493828135</v>
+        <v>0.202154782277737</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0689859582331073</v>
+        <v>0.0403280607019368</v>
       </c>
       <c r="I144" t="e">
         <v>#NUM!</v>
@@ -5775,10 +5525,10 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>-5.27844868377428</v>
+        <v>-8.01400356530023</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0000199331673610754</v>
+        <v>0.000000000000169881236041996</v>
       </c>
     </row>
     <row r="145">
@@ -5786,25 +5536,25 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.306958949833159</v>
+        <v>0.200350645484206</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0743309533307882</v>
+        <v>0.023466584936956</v>
       </c>
       <c r="I145" t="e">
         <v>#NUM!</v>
@@ -5813,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>-4.8772572779465</v>
+        <v>-13.7259414952324</v>
       </c>
       <c r="L145" t="n">
-        <v>0.000164583769359616</v>
+        <v>0.000000000000000000000000000000000000000108631211792538</v>
       </c>
     </row>
     <row r="146">
@@ -5824,25 +5574,25 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0.348035000176451</v>
+        <v>0.460779088176669</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0850075013346945</v>
+        <v>0.0212698455671328</v>
       </c>
       <c r="I146" t="e">
         <v>#NUM!</v>
@@ -5851,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>-4.32119884662583</v>
+        <v>-16.7856639521798</v>
       </c>
       <c r="L146" t="n">
-        <v>0.00237431130144775</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000475423933841898</v>
       </c>
     </row>
     <row r="147">
@@ -5862,305 +5612,405 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
+      <c r="G147" t="n">
+        <v>0.390276374820906</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.015059576271673</v>
+      </c>
+      <c r="I147" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J147" t="n">
         <v>1</v>
       </c>
-      <c r="K147"/>
-      <c r="L147"/>
+      <c r="K147" t="n">
+        <v>-24.3838928856401</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000387834992888561</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
+      <c r="G148" t="n">
+        <v>1.71563876786731</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.050866218963417</v>
+      </c>
+      <c r="I148" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J148" t="n">
         <v>1</v>
       </c>
-      <c r="K148"/>
-      <c r="L148"/>
+      <c r="K148" t="n">
+        <v>18.2061277343798</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000070602255162233</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149"/>
-      <c r="H149"/>
-      <c r="I149"/>
+      <c r="G149" t="n">
+        <v>0.846992376249654</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.0376197812265881</v>
+      </c>
+      <c r="I149" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J149" t="n">
         <v>1</v>
       </c>
-      <c r="K149"/>
-      <c r="L149"/>
+      <c r="K149" t="n">
+        <v>-3.73884658812189</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.0282845734722822</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E150" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
+      <c r="G150" t="n">
+        <v>0.268575819576202</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0114383102368747</v>
+      </c>
+      <c r="I150" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J150" t="n">
         <v>1</v>
       </c>
-      <c r="K150"/>
-      <c r="L150"/>
+      <c r="K150" t="n">
+        <v>-30.8678187521653</v>
+      </c>
+      <c r="L150" t="n">
+        <v>4.94255601441032e-207</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
+      <c r="G151" t="n">
+        <v>0.227481671626046</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.00756495003054539</v>
+      </c>
+      <c r="I151" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J151" t="n">
         <v>1</v>
       </c>
-      <c r="K151"/>
-      <c r="L151"/>
+      <c r="K151" t="n">
+        <v>-44.5249256012554</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E152" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
+      <c r="G152" t="n">
+        <v>0.682745628354143</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0639612853652458</v>
+      </c>
+      <c r="I152" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J152" t="n">
         <v>1</v>
       </c>
-      <c r="K152"/>
-      <c r="L152"/>
+      <c r="K152" t="n">
+        <v>-4.07368625257392</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.00708004622721806</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
+      <c r="G153" t="n">
+        <v>0.430999694127629</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0519550142846439</v>
+      </c>
+      <c r="I153" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J153" t="n">
         <v>1</v>
       </c>
-      <c r="K153"/>
-      <c r="L153"/>
+      <c r="K153" t="n">
+        <v>-6.98200148410783</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.000000000445236203817168</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
+      <c r="G154" t="n">
+        <v>0.377597551254853</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0348991410592149</v>
+      </c>
+      <c r="I154" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J154" t="n">
         <v>1</v>
       </c>
-      <c r="K154"/>
-      <c r="L154"/>
+      <c r="K154" t="n">
+        <v>-10.5375715864906</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.00000000000000000000000887042553527905</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
-      <c r="G155"/>
-      <c r="H155"/>
-      <c r="I155"/>
+      <c r="G155" t="n">
+        <v>1.24174144939075</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.1151718244272</v>
+      </c>
+      <c r="I155" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J155" t="n">
         <v>1</v>
       </c>
-      <c r="K155"/>
-      <c r="L155"/>
+      <c r="K155" t="n">
+        <v>2.33438507467381</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
+      <c r="G156" t="n">
+        <v>0.935371645951038</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.112533954650194</v>
+      </c>
+      <c r="I156" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J156" t="n">
         <v>1</v>
       </c>
-      <c r="K156"/>
-      <c r="L156"/>
+      <c r="K156" t="n">
+        <v>-0.55532962664232</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.227481671626046</v>
+        <v>0.819476319441991</v>
       </c>
       <c r="H157" t="n">
-        <v>0.00756495003054539</v>
+        <v>0.0780637732669479</v>
       </c>
       <c r="I157" t="e">
         <v>#NUM!</v>
@@ -6169,10 +6019,10 @@
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>-44.5249256012554</v>
+        <v>-2.08994968254212</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6180,25 +6030,25 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0.270636854714019</v>
+        <v>0.967513217852681</v>
       </c>
       <c r="H158" t="n">
-        <v>0.00603902589054368</v>
+        <v>0.086686141646245</v>
       </c>
       <c r="I158" t="e">
         <v>#NUM!</v>
@@ -6207,10 +6057,10 @@
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>-58.5717386708033</v>
+        <v>-0.368608833970359</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6218,25 +6068,25 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.304087095941043</v>
+        <v>0.251218206419641</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0058324651338396</v>
+        <v>0.0299003031552457</v>
       </c>
       <c r="I159" t="e">
         <v>#NUM!</v>
@@ -6245,10 +6095,10 @@
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>-62.0660002929718</v>
+        <v>-11.6066118629014</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>0.0000000000000000000000000000583590687661243</v>
       </c>
     </row>
     <row r="160">
@@ -6256,25 +6106,25 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.30685242384802</v>
+        <v>0.220091524117422</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0121459970778818</v>
+        <v>0.0199418441075201</v>
       </c>
       <c r="I160" t="e">
         <v>#NUM!</v>
@@ -6283,10 +6133,10 @@
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>-29.8462017321846</v>
+        <v>-16.706335453934</v>
       </c>
       <c r="L160" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000150457964315907</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000180325001157381</v>
       </c>
     </row>
     <row r="161">
@@ -6294,25 +6144,25 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.344778845989082</v>
+        <v>0.72377791446992</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0130897833279729</v>
+        <v>0.0658201366630291</v>
       </c>
       <c r="I161" t="e">
         <v>#NUM!</v>
@@ -6321,10 +6171,10 @@
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>-28.0477122337752</v>
+        <v>-3.55478112955263</v>
       </c>
       <c r="L161" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000651718457038907</v>
+        <v>0.0578789594483471</v>
       </c>
     </row>
     <row r="162">
@@ -6332,25 +6182,25 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.195880978283611</v>
+        <v>0.584879352800492</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0178457322645557</v>
+        <v>0.0892932525354454</v>
       </c>
       <c r="I162" t="e">
         <v>#NUM!</v>
@@ -6359,10 +6209,10 @@
         <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>-17.8941709807443</v>
+        <v>-3.5131418021049</v>
       </c>
       <c r="L162" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000200324107414331</v>
+        <v>0.0677546833954098</v>
       </c>
     </row>
     <row r="163">
@@ -6370,25 +6220,25 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.220091524117422</v>
+        <v>0.492219922434747</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0199418441075201</v>
+        <v>0.0127957526355208</v>
       </c>
       <c r="I163" t="e">
         <v>#NUM!</v>
@@ -6397,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>-16.706335453934</v>
+        <v>-27.2668668215145</v>
       </c>
       <c r="L163" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000180325001157381</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160451348286546</v>
       </c>
     </row>
     <row r="164">
@@ -6408,25 +6258,25 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0.200350645484206</v>
+        <v>1.60409331711369</v>
       </c>
       <c r="H164" t="n">
-        <v>0.023466584936956</v>
+        <v>0.0628511441722006</v>
       </c>
       <c r="I164" t="e">
         <v>#NUM!</v>
@@ -6435,10 +6285,10 @@
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>-13.7259414952324</v>
+        <v>12.0606910080066</v>
       </c>
       <c r="L164" t="n">
-        <v>0.000000000000000000000000000000000000000108631211792538</v>
+        <v>0.000000000000000000000000000000260631871718951</v>
       </c>
     </row>
     <row r="165">
@@ -6446,25 +6296,25 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.276812322507711</v>
+        <v>0.779724451803493</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0275891221035051</v>
+        <v>0.112566683391776</v>
       </c>
       <c r="I165" t="e">
         <v>#NUM!</v>
@@ -6473,10 +6323,10 @@
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>-12.8870373962289</v>
+        <v>-1.72348416820541</v>
       </c>
       <c r="L165" t="n">
-        <v>0.00000000000000000000000000000000000814731355039023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -6484,25 +6334,25 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.314297614058379</v>
+        <v>0.321583709261748</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0282674345751973</v>
+        <v>0.0489126770356775</v>
       </c>
       <c r="I166" t="e">
         <v>#NUM!</v>
@@ -6511,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>-12.868969375525</v>
+        <v>-7.45892279026196</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0000000000000000000000000000000000102959937383225</v>
+        <v>0.0000000000133466036467655</v>
       </c>
     </row>
     <row r="167">
@@ -6522,25 +6372,25 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.196177147109795</v>
+        <v>0.270636854714019</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0272997744739375</v>
+        <v>0.00603902589054368</v>
       </c>
       <c r="I167" t="e">
         <v>#NUM!</v>
@@ -6549,10 +6399,10 @@
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>-11.7041633718491</v>
+        <v>-58.5717386708033</v>
       </c>
       <c r="L167" t="n">
-        <v>0.000000000000000000000000000018566582768876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6560,25 +6410,25 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
         <v>18</v>
       </c>
       <c r="E168" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.313854268673967</v>
+        <v>0.558280617904708</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0327597967700728</v>
+        <v>0.1353893475858</v>
       </c>
       <c r="I168" t="e">
         <v>#NUM!</v>
@@ -6587,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>-11.1021033008176</v>
+        <v>-2.40357290631623</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0000000000000000000000000187464767835489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6598,25 +6448,25 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.271046053199166</v>
+        <v>0.492964150883723</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0320038015981255</v>
+        <v>0.0585617221455506</v>
       </c>
       <c r="I169" t="e">
         <v>#NUM!</v>
@@ -6625,10 +6475,10 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>-11.0562350127271</v>
+        <v>-5.95410808673812</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0000000000000000000000000312889044227915</v>
+        <v>0.000000400085741116448</v>
       </c>
     </row>
     <row r="170">
@@ -6636,63 +6486,53 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E170" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
       </c>
-      <c r="G170" t="n">
-        <v>0.35635569584702</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.0340150039240771</v>
-      </c>
-      <c r="I170" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
       <c r="J170" t="n">
         <v>1</v>
       </c>
-      <c r="K170" t="n">
-        <v>-10.8098484384614</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.000000000000000000000000473046107147273</v>
-      </c>
+      <c r="K170"/>
+      <c r="L170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E171" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.307316379679663</v>
+        <v>0.780903382385017</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0375175460087529</v>
+        <v>0.139389990698617</v>
       </c>
       <c r="I171" t="e">
         <v>#NUM!</v>
@@ -6701,10 +6541,10 @@
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>-9.66469620783537</v>
+        <v>-1.38546827915147</v>
       </c>
       <c r="L171" t="n">
-        <v>0.000000000000000000065159883830843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6712,128 +6552,168 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E172" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
       </c>
-      <c r="G172"/>
-      <c r="H172"/>
-      <c r="I172"/>
+      <c r="G172" t="n">
+        <v>0.306958949833159</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.0743309533307882</v>
+      </c>
+      <c r="I172" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J172" t="n">
         <v>1</v>
       </c>
-      <c r="K172"/>
-      <c r="L172"/>
+      <c r="K172" t="n">
+        <v>-4.8772572779465</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.000164583769359616</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E173" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
       </c>
-      <c r="G173"/>
-      <c r="H173"/>
-      <c r="I173"/>
+      <c r="G173" t="n">
+        <v>0.271046053199166</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.0320038015981255</v>
+      </c>
+      <c r="I173" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J173" t="n">
         <v>1</v>
       </c>
-      <c r="K173"/>
-      <c r="L173"/>
+      <c r="K173" t="n">
+        <v>-11.0562350127271</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.0000000000000000000000000312889044227915</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
       </c>
-      <c r="G174"/>
-      <c r="H174"/>
-      <c r="I174"/>
+      <c r="G174" t="n">
+        <v>0.507985063809976</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.109668758144487</v>
+      </c>
+      <c r="I174" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J174" t="n">
         <v>1</v>
       </c>
-      <c r="K174"/>
-      <c r="L174"/>
+      <c r="K174" t="n">
+        <v>-3.13726472565291</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.260914079081402</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
+      <c r="G175" t="n">
+        <v>0.503451534927516</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.0506129215088401</v>
+      </c>
+      <c r="I175" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J175" t="n">
         <v>1</v>
       </c>
-      <c r="K175"/>
-      <c r="L175"/>
+      <c r="K175" t="n">
+        <v>-6.82637123052554</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.00000000133246772477316</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6852,165 +6732,215 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E177" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
-      <c r="G177"/>
-      <c r="H177"/>
-      <c r="I177"/>
+      <c r="G177" t="n">
+        <v>0.79751642342966</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.129162657508187</v>
+      </c>
+      <c r="I177" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J177" t="n">
         <v>1</v>
       </c>
-      <c r="K177"/>
-      <c r="L177"/>
+      <c r="K177" t="n">
+        <v>-1.39700102116197</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E178" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
-      <c r="G178"/>
-      <c r="H178"/>
-      <c r="I178"/>
+      <c r="G178" t="n">
+        <v>0.279304988776552</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.0601865685530694</v>
+      </c>
+      <c r="I178" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J178" t="n">
         <v>1</v>
       </c>
-      <c r="K178"/>
-      <c r="L178"/>
+      <c r="K178" t="n">
+        <v>-5.91892543962051</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.000000495799284148098</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E179" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
-      <c r="G179"/>
-      <c r="H179"/>
-      <c r="I179"/>
+      <c r="G179" t="n">
+        <v>0.276812322507711</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0275891221035051</v>
+      </c>
+      <c r="I179" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J179" t="n">
         <v>1</v>
       </c>
-      <c r="K179"/>
-      <c r="L179"/>
+      <c r="K179" t="n">
+        <v>-12.8870373962289</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.00000000000000000000000000000000000814731355039023</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
       </c>
-      <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
+      <c r="G180" t="n">
+        <v>0.674891305107941</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.0651189190863882</v>
+      </c>
+      <c r="I180" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J180" t="n">
         <v>1</v>
       </c>
-      <c r="K180"/>
-      <c r="L180"/>
+      <c r="K180" t="n">
+        <v>-4.07515534832971</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.00703549686220365</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
+      <c r="G181" t="n">
+        <v>0.571627790223606</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.0519617010943201</v>
+      </c>
+      <c r="I181" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J181" t="n">
         <v>1</v>
       </c>
-      <c r="K181"/>
-      <c r="L181"/>
+      <c r="K181" t="n">
+        <v>-6.1524676055804</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.000000116718432694709</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
         <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1.56652486901375</v>
+        <v>2.51285207347736</v>
       </c>
       <c r="H182" t="n">
-        <v>0.150993570953313</v>
+        <v>0.23090684583024</v>
       </c>
       <c r="I182" t="e">
         <v>#NUM!</v>
@@ -7019,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>4.65682008167036</v>
+        <v>10.0273688696605</v>
       </c>
       <c r="L182" t="n">
-        <v>0.000491330198981826</v>
+        <v>0.00000000000000000000176798859026283</v>
       </c>
     </row>
     <row r="183">
@@ -7030,25 +6960,25 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E183" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.72377791446992</v>
+        <v>0.905514273300935</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0658201366630291</v>
+        <v>0.10480549856017</v>
       </c>
       <c r="I183" t="e">
         <v>#NUM!</v>
@@ -7057,10 +6987,10 @@
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>-3.55478112955263</v>
+        <v>-0.85753438708141</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0578789594483471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -7068,25 +6998,25 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1.13381610266004</v>
+        <v>0.371074903235893</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0418577804545217</v>
+        <v>0.0354684885361579</v>
       </c>
       <c r="I184" t="e">
         <v>#NUM!</v>
@@ -7095,10 +7025,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>3.40187314114622</v>
+        <v>-10.3716176867184</v>
       </c>
       <c r="L184" t="n">
-        <v>0.102396315142094</v>
+        <v>0.0000000000000000000000510752272605162</v>
       </c>
     </row>
     <row r="185">
@@ -7106,196 +7036,266 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
-      <c r="G185"/>
-      <c r="H185"/>
-      <c r="I185"/>
+      <c r="G185" t="n">
+        <v>0.314297614058379</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.0282674345751973</v>
+      </c>
+      <c r="I185" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J185" t="n">
         <v>1</v>
       </c>
-      <c r="K185"/>
-      <c r="L185"/>
+      <c r="K185" t="n">
+        <v>-12.868969375525</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.0000000000000000000000000000000000102959937383225</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
       </c>
-      <c r="G186"/>
-      <c r="H186"/>
-      <c r="I186"/>
+      <c r="G186" t="n">
+        <v>0.631274190896859</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.0914318901193052</v>
+      </c>
+      <c r="I186" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J186" t="n">
         <v>1</v>
       </c>
-      <c r="K186"/>
-      <c r="L186"/>
+      <c r="K186" t="n">
+        <v>-3.17608639581767</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.228393024571128</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
-      <c r="G187"/>
-      <c r="H187"/>
-      <c r="I187"/>
+      <c r="G187" t="n">
+        <v>0.553057442733258</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.0128660639150117</v>
+      </c>
+      <c r="I187" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J187" t="n">
         <v>1</v>
       </c>
-      <c r="K187"/>
-      <c r="L187"/>
+      <c r="K187" t="n">
+        <v>-25.4601780156932</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000083324707495874</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
+      <c r="G188" t="n">
+        <v>1.81874683311286</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.0396718461350278</v>
+      </c>
+      <c r="I188" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J188" t="n">
         <v>1</v>
       </c>
-      <c r="K188"/>
-      <c r="L188"/>
+      <c r="K188" t="n">
+        <v>27.4219468096522</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000229736813822015</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E189" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
-      <c r="G189"/>
-      <c r="H189"/>
-      <c r="I189"/>
+      <c r="G189" t="n">
+        <v>0.87609702837292</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.126177228841068</v>
+      </c>
+      <c r="I189" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J189" t="n">
         <v>1</v>
       </c>
-      <c r="K189"/>
-      <c r="L189"/>
+      <c r="K189" t="n">
+        <v>-0.918460022887777</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
-      <c r="G190"/>
-      <c r="H190"/>
-      <c r="I190"/>
+      <c r="G190" t="n">
+        <v>0.347092943010879</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.0500632724735064</v>
+      </c>
+      <c r="I190" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J190" t="n">
         <v>1</v>
       </c>
-      <c r="K190"/>
-      <c r="L190"/>
+      <c r="K190" t="n">
+        <v>-7.33633227072719</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.0000000000335875733640793</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
-      <c r="G191"/>
-      <c r="H191"/>
-      <c r="I191"/>
+      <c r="G191" t="n">
+        <v>0.304087095941043</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.0058324651338396</v>
+      </c>
+      <c r="I191" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="J191" t="n">
         <v>1</v>
       </c>
-      <c r="K191"/>
-      <c r="L191"/>
+      <c r="K191" t="n">
+        <v>-62.0660002929718</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_season_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_season_LMB.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.463255548546161</v>
+        <v>0.806894511460617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.070437769681039</v>
+        <v>0.0902626890121446</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.0606972690551</v>
+        <v>-1.91805909292759</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0000639120799904971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.389864352504574</v>
+        <v>0.645651656549176</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0086263845636618</v>
+        <v>0.00917148459720282</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-42.5711634923262</v>
+        <v>-30.7986636860888</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27052720527855</v>
+        <v>1.04661626773175</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0465555698664657</v>
+        <v>0.0264884636899569</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5342297416272</v>
+        <v>1.800266934792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00000000978247354788073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.841575138663937</v>
+        <v>0.800168606154522</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12810785951602</v>
+        <v>0.0897055388561325</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.1330675724898</v>
+        <v>-1.98854878730234</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.364616787914114</v>
+        <v>0.77095544598149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0566674296136069</v>
+        <v>0.0878427688068737</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.49164666176558</v>
+        <v>-2.28299440588269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0000000129901897632431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.30685242384802</v>
+        <v>0.616894344618247</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0121459970778818</v>
+        <v>0.0165133081613456</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-29.8462017321846</v>
+        <v>-18.0457751574743</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000150457964315907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.553905249348899</v>
+        <v>0.627433958637207</v>
       </c>
       <c r="H8" t="n">
-        <v>0.111052271093449</v>
+        <v>0.0697424905167372</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.94659414509081</v>
+        <v>-4.19339119787546</v>
       </c>
       <c r="L8" t="n">
-        <v>0.491580734002903</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.442187936113306</v>
+        <v>0.619592650962479</v>
       </c>
       <c r="H9" t="n">
-        <v>0.107063173585062</v>
+        <v>0.0861829085510776</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.37029360200426</v>
+        <v>-3.44145596080156</v>
       </c>
       <c r="L9" t="n">
-        <v>0.114884843572146</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.390453821010725</v>
+        <v>0.565783569054377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0460660931993072</v>
+        <v>0.0368048797946356</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.97116798561622</v>
+        <v>-8.75531850401898</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000000000000240487969124007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.954522698111286</v>
+        <v>0.767873175690476</v>
       </c>
       <c r="H12" t="n">
-        <v>0.237929032056573</v>
+        <v>0.0961576189688975</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.186724447281166</v>
+        <v>-2.10923354763715</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.842847586469475</v>
+        <v>0.70118653803979</v>
       </c>
       <c r="H13" t="n">
-        <v>0.155851351550119</v>
+        <v>0.0868001359389384</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.924604903671012</v>
+        <v>-2.86760064783461</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="14">
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.00151198359728</v>
+        <v>0.876298485902336</v>
       </c>
       <c r="H14" t="n">
-        <v>0.118761555668545</v>
+        <v>0.0574921183471181</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0127408744379135</v>
+        <v>-2.01269168038789</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.348035000176451</v>
+        <v>0.591996006621674</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0850075013346945</v>
+        <v>0.083334690143336</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -963,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.32119884662583</v>
+        <v>-3.72422452899222</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00237431130144775</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.307316379679663</v>
+        <v>0.540583580150683</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0375175460087529</v>
+        <v>0.0370153184702524</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-9.66469620783537</v>
+        <v>-8.98320553908886</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000000000000000000065159883830843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.39629815365883</v>
+        <v>0.416571024892887</v>
       </c>
       <c r="H18" t="n">
-        <v>0.151789449786353</v>
+        <v>0.0715404104045065</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1067,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.41656445452905</v>
+        <v>-5.09908369150672</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.402351182789692</v>
+        <v>0.687969926417134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0866872500777165</v>
+        <v>0.0939617477633459</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1105,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-4.2256800170089</v>
+        <v>-2.73843073358374</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00364477055526944</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="20">
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.398760386843078</v>
+        <v>0.479296118484896</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0397025870897384</v>
+        <v>0.024617855984561</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1143,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-9.23411203010197</v>
+        <v>-14.3185475654058</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00000000000000000398468848197323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.868529657232156</v>
+        <v>0.852614457832649</v>
       </c>
       <c r="H22" t="n">
-        <v>0.194072476990045</v>
+        <v>0.104371784976554</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.630807299916191</v>
+        <v>-1.30253127756509</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.860778436641528</v>
+        <v>0.59400096502985</v>
       </c>
       <c r="H23" t="n">
-        <v>0.145468995468504</v>
+        <v>0.0632667905556599</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.88710520052868</v>
+        <v>-4.89039913241678</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.02281828097736</v>
+        <v>0.74234475141998</v>
       </c>
       <c r="H24" t="n">
-        <v>0.102660730515224</v>
+        <v>0.0386208576968557</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1285,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.22478566024833</v>
+        <v>-5.72683612356873</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.316680493828135</v>
+        <v>0.657327759588636</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0689859582331073</v>
+        <v>0.0908970509101764</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1323,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.27844868377428</v>
+        <v>-3.03416509599082</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0000199331673610754</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="26">
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.313854268673967</v>
+        <v>0.457948278908023</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0327597967700728</v>
+        <v>0.0255002058413214</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1361,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.1021033008176</v>
+        <v>-14.0256578148835</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0000000000000000000000000187464767835489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.16009995874686</v>
+        <v>1.22858971453345</v>
       </c>
       <c r="H28" t="n">
-        <v>0.107504973901174</v>
+        <v>0.112878769326398</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1.60254915299846</v>
+        <v>2.24068710279387</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.534549801185171</v>
+        <v>0.775173114717797</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0510517290988226</v>
+        <v>0.071623715593157</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1465,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.55814770081982</v>
+        <v>-2.75624467924182</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00000000833547603919715</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="30">
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.452759606329608</v>
+        <v>0.740326849673318</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0406834038810314</v>
+        <v>0.0667623748603438</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1503,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.81843565913269</v>
+        <v>-3.33405250159734</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000000000000000177586899873358</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="31">
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.99031246382739</v>
+        <v>1.48263752894106</v>
       </c>
       <c r="H31" t="n">
-        <v>0.180833077451321</v>
+        <v>0.135002786580929</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1541,10 +1541,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>7.57557995436073</v>
+        <v>4.32506768774099</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00000000000547016061932409</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="32">
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.15389832428938</v>
+        <v>0.960687058478811</v>
       </c>
       <c r="H32" t="n">
-        <v>0.149582578547151</v>
+        <v>0.0721093839526125</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1.10424620907262</v>
+        <v>-0.534325152229902</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.977343083640352</v>
+        <v>0.917501407133381</v>
       </c>
       <c r="H33" t="n">
-        <v>0.122563213525858</v>
+        <v>0.0658778339141142</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.182748861494858</v>
+        <v>-1.19915813425222</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.16132599305626</v>
+        <v>1.14663509674885</v>
       </c>
       <c r="H34" t="n">
-        <v>0.104679062532345</v>
+        <v>0.103747332853404</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1.65926935405081</v>
+        <v>1.51228921667194</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.420730700581871</v>
+        <v>0.740646919618178</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0424017749419911</v>
+        <v>0.0702877992554738</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1693,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>-8.59050797442562</v>
+        <v>-3.16364090920068</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00000000000000132476060084141</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="36">
@@ -1719,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.35635569584702</v>
+        <v>0.707352706525161</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0340150039240771</v>
+        <v>0.0656022353781907</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1731,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-10.8098484384614</v>
+        <v>-3.73316240801665</v>
       </c>
       <c r="L36" t="n">
-        <v>0.000000000000000000000000473046107147273</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="37">
@@ -1757,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.56652486901375</v>
+        <v>1.4166008829141</v>
       </c>
       <c r="H37" t="n">
-        <v>0.150993570953313</v>
+        <v>0.132589089425266</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1769,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.65682008167036</v>
+        <v>3.72086263310626</v>
       </c>
       <c r="L37" t="n">
-        <v>0.000491330198981826</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.792053175288242</v>
+        <v>0.915402483684154</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0171652917006135</v>
+        <v>0.0137974798971007</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1807,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-10.7571013028042</v>
+        <v>-5.86438553033952</v>
       </c>
       <c r="L38" t="n">
-        <v>0.000000000000000000000000839495432018162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.500002727377373</v>
+        <v>0.726744661222566</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0720920606345883</v>
+        <v>0.0758158030668045</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.80736367248211</v>
+        <v>-3.05955241315849</v>
       </c>
       <c r="L39" t="n">
-        <v>0.000233988466151548</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="40">
@@ -1871,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.438050903633672</v>
+        <v>0.700830108862359</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00827255623182394</v>
+        <v>0.00916894982036112</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-43.70789820294</v>
+        <v>-27.171916500991</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.44054420421248</v>
+        <v>1.13141782927354</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0244237929243031</v>
+        <v>0.0138229158065619</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1921,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>21.5293682085743</v>
+        <v>10.1062560938062</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126458531283029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1947,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.0793237748507</v>
+        <v>0.900668737858972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.168246651562405</v>
+        <v>0.0765048643211872</v>
       </c>
       <c r="I42" t="e">
         <v>#NUM!</v>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0.489696925728926</v>
+        <v>-1.2316332725522</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.945592351798939</v>
+        <v>0.868552331077003</v>
       </c>
       <c r="H43" t="n">
-        <v>0.143632160248858</v>
+        <v>0.0972531670238628</v>
       </c>
       <c r="I43" t="e">
         <v>#NUM!</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.368301599050301</v>
+        <v>-1.25860021593061</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.12359824851782</v>
+        <v>1.08546164445406</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0254412679977403</v>
+        <v>0.0164432800365355</v>
       </c>
       <c r="I44" t="e">
         <v>#NUM!</v>
@@ -2035,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>5.1467534854435</v>
+        <v>5.41337794452499</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0000405500866557851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.393539567905398</v>
+        <v>0.69437546847765</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0581374567228049</v>
+        <v>0.0739814487897527</v>
       </c>
       <c r="I45" t="e">
         <v>#NUM!</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.31270538540554</v>
+        <v>-3.42340153523707</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0000000419524769078021</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="46">
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.344778845989082</v>
+        <v>0.669615149763734</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0130897833279729</v>
+        <v>0.0174290891727753</v>
       </c>
       <c r="I46" t="e">
         <v>#NUM!</v>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-28.0477122337752</v>
+        <v>-15.4081824217699</v>
       </c>
       <c r="L46" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000651718457038907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.13381610266004</v>
+        <v>1.0810245016787</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0418577804545217</v>
+        <v>0.0276618140437445</v>
       </c>
       <c r="I47" t="e">
         <v>#NUM!</v>
@@ -2149,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.40187314114622</v>
+        <v>3.04469397641184</v>
       </c>
       <c r="L47" t="n">
-        <v>0.102396315142094</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="48">
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.836344391194534</v>
+        <v>1.28602301541536</v>
       </c>
       <c r="H48" t="n">
-        <v>0.209887350453006</v>
+        <v>0.201990213412559</v>
       </c>
       <c r="I48" t="e">
         <v>#NUM!</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.712130196951469</v>
+        <v>1.60158702827409</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.703846646990345</v>
+        <v>1.02903524372754</v>
       </c>
       <c r="H49" t="n">
-        <v>0.141486578449387</v>
+        <v>0.114720091781507</v>
       </c>
       <c r="I49" t="e">
         <v>#NUM!</v>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.74707219098578</v>
+        <v>0.256735716498083</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2.29376270900487</v>
+        <v>1.66808992934494</v>
       </c>
       <c r="H50" t="n">
-        <v>0.465248514252146</v>
+        <v>0.188813550681997</v>
       </c>
       <c r="I50" t="e">
         <v>#NUM!</v>
@@ -2263,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>4.0930105134186</v>
+        <v>4.5204750706758</v>
       </c>
       <c r="L50" t="n">
-        <v>0.00651486861332883</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="51">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.881671164372688</v>
+        <v>1.04205828707977</v>
       </c>
       <c r="H51" t="n">
-        <v>0.213568086908395</v>
+        <v>0.145154393883516</v>
       </c>
       <c r="I51" t="e">
         <v>#NUM!</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.519900931502778</v>
+        <v>0.295758127302929</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.798309704833247</v>
+        <v>0.987502576858034</v>
       </c>
       <c r="H54" t="n">
-        <v>0.250526421324425</v>
+        <v>0.175265198353641</v>
       </c>
       <c r="I54" t="e">
         <v>#NUM!</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.717793236562092</v>
+        <v>-0.0708583512201663</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.704910851575595</v>
+        <v>0.901742026018586</v>
       </c>
       <c r="H55" t="n">
-        <v>0.163332116468453</v>
+        <v>0.115335475603683</v>
       </c>
       <c r="I55" t="e">
         <v>#NUM!</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.50917043334102</v>
+        <v>-0.808634927912254</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.883004236711413</v>
+        <v>0.913154099189985</v>
       </c>
       <c r="H57" t="n">
-        <v>0.233112489352881</v>
+        <v>0.135922891322433</v>
       </c>
       <c r="I57" t="e">
         <v>#NUM!</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.471309151927807</v>
+        <v>-0.610350646178583</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.71546199304785</v>
+        <v>0.663928082244199</v>
       </c>
       <c r="H60" t="n">
-        <v>0.308892087518132</v>
+        <v>0.135440842488095</v>
       </c>
       <c r="I60" t="e">
         <v>#NUM!</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.775532491524568</v>
+        <v>-2.00775939124946</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -2619,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.726389907412225</v>
+        <v>1.09648181604867</v>
       </c>
       <c r="H61" t="n">
-        <v>0.213366238572908</v>
+        <v>0.192456845531119</v>
       </c>
       <c r="I61" t="e">
         <v>#NUM!</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.08828773306135</v>
+        <v>0.524758301050112</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
@@ -2657,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.719907217546341</v>
+        <v>0.763898912207321</v>
       </c>
       <c r="H62" t="n">
-        <v>0.160453404666645</v>
+        <v>0.0928584310525138</v>
       </c>
       <c r="I62" t="e">
         <v>#NUM!</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>-1.47447930926265</v>
+        <v>-2.21555662122212</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.909909904657811</v>
+        <v>1.11035843525329</v>
       </c>
       <c r="H64" t="n">
-        <v>0.265957496064995</v>
+        <v>0.164022119688661</v>
       </c>
       <c r="I64" t="e">
         <v>#NUM!</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.323000154231244</v>
+        <v>0.708657568004375</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.901789384730976</v>
+        <v>0.773566500087362</v>
       </c>
       <c r="H65" t="n">
-        <v>0.228250237377814</v>
+        <v>0.104283192345617</v>
       </c>
       <c r="I65" t="e">
         <v>#NUM!</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.408419431566183</v>
+        <v>-1.90450900395196</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1.02127413124259</v>
+        <v>0.847136864165157</v>
       </c>
       <c r="H66" t="n">
-        <v>0.154074857514319</v>
+        <v>0.0676169499719751</v>
       </c>
       <c r="I66" t="e">
         <v>#NUM!</v>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0.139535015874327</v>
+        <v>-2.07838544456068</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>2.09440145243348</v>
+        <v>1.95811797818843</v>
       </c>
       <c r="H70" t="n">
-        <v>0.461000567385577</v>
+        <v>0.281026041998921</v>
       </c>
       <c r="I70" t="e">
         <v>#NUM!</v>
@@ -2933,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>3.35861533330623</v>
+        <v>4.68221216820307</v>
       </c>
       <c r="L70" t="n">
-        <v>0.119851058745165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.96505639152819</v>
+        <v>1.23546566781543</v>
       </c>
       <c r="H71" t="n">
-        <v>0.213587120197166</v>
+        <v>0.177719857128329</v>
       </c>
       <c r="I71" t="e">
         <v>#NUM!</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.160711199669333</v>
+        <v>1.46993530618326</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.817395406275378</v>
+        <v>1.17992792624951</v>
       </c>
       <c r="H72" t="n">
-        <v>0.178966744604125</v>
+        <v>0.168064734399258</v>
       </c>
       <c r="I72" t="e">
         <v>#NUM!</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.920915999544505</v>
+        <v>1.16159429463698</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>3.59323632727249</v>
+        <v>2.36301766669016</v>
       </c>
       <c r="H73" t="n">
-        <v>0.788192073904583</v>
+        <v>0.337896249911925</v>
       </c>
       <c r="I73" t="e">
         <v>#NUM!</v>
@@ -3047,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>5.83099077439622</v>
+        <v>6.01383463473155</v>
       </c>
       <c r="L73" t="n">
-        <v>0.000000843018239071665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.20887468320302</v>
+        <v>1.25110120901795</v>
       </c>
       <c r="H74" t="n">
-        <v>0.276481800133027</v>
+        <v>0.13970846148669</v>
       </c>
       <c r="I74" t="e">
         <v>#NUM!</v>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>0.829390337335261</v>
+        <v>2.00615523062334</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1.02390764051418</v>
+        <v>1.19486060482365</v>
       </c>
       <c r="H75" t="n">
-        <v>0.231751774957109</v>
+        <v>0.130848203992801</v>
       </c>
       <c r="I75" t="e">
         <v>#NUM!</v>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0.104384000915977</v>
+        <v>1.62570417688063</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.1595727380964</v>
+        <v>1.30849832014504</v>
       </c>
       <c r="H76" t="n">
-        <v>0.160768909527326</v>
+        <v>0.13665196677563</v>
       </c>
       <c r="I76" t="e">
         <v>#NUM!</v>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1.06784706707664</v>
+        <v>2.57463719634452</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.42994343566753</v>
+        <v>1.45896228771617</v>
       </c>
       <c r="H80" t="n">
-        <v>0.287389198175314</v>
+        <v>0.162887545048089</v>
       </c>
       <c r="I80" t="e">
         <v>#NUM!</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1.77946027103915</v>
+        <v>3.38323684869576</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="81">
@@ -3309,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.902686385379293</v>
+        <v>1.15828072615174</v>
       </c>
       <c r="H81" t="n">
-        <v>0.222306065158638</v>
+        <v>0.175803958852529</v>
       </c>
       <c r="I81" t="e">
         <v>#NUM!</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.415720157340761</v>
+        <v>0.968089872903285</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.790840859783491</v>
+        <v>1.11697828785769</v>
       </c>
       <c r="H82" t="n">
-        <v>0.158776943225149</v>
+        <v>0.124478880894225</v>
       </c>
       <c r="I82" t="e">
         <v>#NUM!</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>-1.16879404541167</v>
+        <v>0.992682837002429</v>
       </c>
       <c r="L82" t="n">
         <v>1</v>
@@ -3385,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>2.60070509515083</v>
+        <v>1.80324608462537</v>
       </c>
       <c r="H83" t="n">
-        <v>0.521569102227088</v>
+        <v>0.200565687562567</v>
       </c>
       <c r="I83" t="e">
         <v>#NUM!</v>
@@ -3397,10 +3397,10 @@
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>4.76582808240288</v>
+        <v>5.30087187310232</v>
       </c>
       <c r="L83" t="n">
-        <v>0.000287761757173148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1.13074710217615</v>
+        <v>1.17293944673752</v>
       </c>
       <c r="H84" t="n">
-        <v>0.276519792222659</v>
+        <v>0.13903504743427</v>
       </c>
       <c r="I84" t="e">
         <v>#NUM!</v>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>0.502476086853919</v>
+        <v>1.34569685717675</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.990644176057817</v>
+        <v>1.13111430191059</v>
       </c>
       <c r="H85" t="n">
-        <v>0.239761027080466</v>
+        <v>0.157436893268949</v>
       </c>
       <c r="I85" t="e">
         <v>#NUM!</v>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.0388383433477181</v>
+        <v>0.885160781361655</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1.12190195116989</v>
+        <v>1.23868939855163</v>
       </c>
       <c r="H86" t="n">
-        <v>0.132290523463386</v>
+        <v>0.0810905767719536</v>
       </c>
       <c r="I86" t="e">
         <v>#NUM!</v>
@@ -3511,10 +3511,10 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0.97548361716595</v>
+        <v>3.26975448198011</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="87">
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1.16895712046384</v>
+        <v>1.93699144501971</v>
       </c>
       <c r="H90" t="n">
-        <v>0.481245417298121</v>
+        <v>0.396074603204476</v>
       </c>
       <c r="I90" t="e">
         <v>#NUM!</v>
@@ -3633,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>0.379199944432666</v>
+        <v>3.23326641815879</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="91">
@@ -3659,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.983765250746551</v>
+        <v>1.54991974469466</v>
       </c>
       <c r="H91" t="n">
-        <v>0.377072974781688</v>
+        <v>0.266511135727783</v>
       </c>
       <c r="I91" t="e">
         <v>#NUM!</v>
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.0427032637848179</v>
+        <v>2.54841027778335</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>3.20598820243896</v>
+        <v>2.51245575229547</v>
       </c>
       <c r="H92" t="n">
-        <v>1.23189967569347</v>
+        <v>0.434805364542669</v>
       </c>
       <c r="I92" t="e">
         <v>#NUM!</v>
@@ -3709,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>3.03193648755563</v>
+        <v>5.32336267872661</v>
       </c>
       <c r="L92" t="n">
-        <v>0.371775197375971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.968965344656026</v>
+        <v>0.93848819804036</v>
       </c>
       <c r="H93" t="n">
-        <v>0.208884547801499</v>
+        <v>0.128366299463585</v>
       </c>
       <c r="I93" t="e">
         <v>#NUM!</v>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.146243559599855</v>
+        <v>-0.464139902600885</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1.11579610460154</v>
+        <v>1.48736377217257</v>
       </c>
       <c r="H96" t="n">
-        <v>0.505186596416206</v>
+        <v>0.328022298744835</v>
       </c>
       <c r="I96" t="e">
         <v>#NUM!</v>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0.242001095393749</v>
+        <v>1.80015584901985</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0.985252687669254</v>
+        <v>1.35819232554606</v>
       </c>
       <c r="H97" t="n">
-        <v>0.394340697349193</v>
+        <v>0.248572723103392</v>
       </c>
       <c r="I97" t="e">
         <v>#NUM!</v>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.037120267558031</v>
+        <v>1.67281784446532</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.970430404363478</v>
+        <v>0.822395786979979</v>
       </c>
       <c r="H99" t="n">
-        <v>0.232685409310198</v>
+        <v>0.120483569744594</v>
       </c>
       <c r="I99" t="e">
         <v>#NUM!</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.125182070007539</v>
+        <v>-1.33467104948835</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.01527392715555</v>
+        <v>1.65150691072196</v>
       </c>
       <c r="H102" t="n">
-        <v>0.445781864547212</v>
+        <v>0.361630369345433</v>
       </c>
       <c r="I102" t="e">
         <v>#NUM!</v>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0345235762515156</v>
+        <v>2.29112795154251</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1.00621308265385</v>
+        <v>1.15057478759627</v>
       </c>
       <c r="H103" t="n">
-        <v>0.397655003697645</v>
+        <v>0.205530046186997</v>
       </c>
       <c r="I103" t="e">
         <v>#NUM!</v>
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0156727413067346</v>
+        <v>0.785196623911994</v>
       </c>
       <c r="L103" t="n">
         <v>1</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.991075468147708</v>
+        <v>0.696681788084856</v>
       </c>
       <c r="H105" t="n">
-        <v>0.22569638388361</v>
+        <v>0.0921145610371027</v>
       </c>
       <c r="I105" t="e">
         <v>#NUM!</v>
@@ -4143,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.0393652262585486</v>
+        <v>-2.73354472590943</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="106">
@@ -4225,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>2.92734131621917</v>
+        <v>2.94929229619212</v>
       </c>
       <c r="H108" t="n">
-        <v>1.15233084199429</v>
+        <v>0.572937647387888</v>
       </c>
       <c r="I108" t="e">
         <v>#NUM!</v>
@@ -4237,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2.72859270637646</v>
+        <v>5.5675378473208</v>
       </c>
       <c r="L108" t="n">
-        <v>0.973159697860361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4263,10 +4263,10 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1.34885766246936</v>
+        <v>1.86084261361461</v>
       </c>
       <c r="H109" t="n">
-        <v>0.531884279235623</v>
+        <v>0.361942104885768</v>
       </c>
       <c r="I109" t="e">
         <v>#NUM!</v>
@@ -4275,10 +4275,10 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>0.758917946520228</v>
+        <v>3.1928807458759</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="110">
@@ -4301,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1.14247215675747</v>
+        <v>1.77719237641091</v>
       </c>
       <c r="H110" t="n">
-        <v>0.448985700516759</v>
+        <v>0.34382450193311</v>
       </c>
       <c r="I110" t="e">
         <v>#NUM!</v>
@@ -4313,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>0.338921655417524</v>
+        <v>2.97229389198161</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="111">
@@ -4339,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>5.02226024888533</v>
+        <v>3.55914703698437</v>
       </c>
       <c r="H111" t="n">
-        <v>1.97486146235874</v>
+        <v>0.690027849236143</v>
       </c>
       <c r="I111" t="e">
         <v>#NUM!</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>4.10425031453434</v>
+        <v>6.5481583462319</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0062061097719924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4377,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.32856525356501</v>
+        <v>1.12675436084075</v>
       </c>
       <c r="H112" t="n">
-        <v>0.266061386558681</v>
+        <v>0.122266316137736</v>
       </c>
       <c r="I112" t="e">
         <v>#NUM!</v>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1.41863825599299</v>
+        <v>1.09979822194658</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
@@ -4415,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.12528464111976</v>
+        <v>1.07610350575766</v>
       </c>
       <c r="H113" t="n">
-        <v>0.222301907033854</v>
+        <v>0.114374830940692</v>
       </c>
       <c r="I113" t="e">
         <v>#NUM!</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>0.597494281118434</v>
+        <v>0.690087047675175</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
@@ -4453,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.13541771266207</v>
+        <v>1.54461265410112</v>
       </c>
       <c r="H114" t="n">
-        <v>0.132755709439562</v>
+        <v>0.129616232440292</v>
       </c>
       <c r="I114" t="e">
         <v>#NUM!</v>
@@ -4465,10 +4465,10 @@
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>1.0861961794157</v>
+        <v>5.18111139924434</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1.9986294863491</v>
+        <v>2.19747036875532</v>
       </c>
       <c r="H118" t="n">
-        <v>0.766024525503576</v>
+        <v>0.378087164045551</v>
       </c>
       <c r="I118" t="e">
         <v>#NUM!</v>
@@ -4587,10 +4587,10 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>1.80669717927158</v>
+        <v>4.57588533700682</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="119">
@@ -4613,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1.26168321189763</v>
+        <v>1.74458764002953</v>
       </c>
       <c r="H119" t="n">
-        <v>0.51583660679236</v>
+        <v>0.349686432531529</v>
       </c>
       <c r="I119" t="e">
         <v>#NUM!</v>
@@ -4625,10 +4625,10 @@
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>0.568540716642622</v>
+        <v>2.77647261877365</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="120">
@@ -4651,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1.10535691269152</v>
+        <v>1.68237843484809</v>
       </c>
       <c r="H120" t="n">
-        <v>0.423534099538124</v>
+        <v>0.289245372318634</v>
       </c>
       <c r="I120" t="e">
         <v>#NUM!</v>
@@ -4663,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>0.261423346209572</v>
+        <v>3.02576183269578</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="121">
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>3.6350010488634</v>
+        <v>2.716026227615</v>
       </c>
       <c r="H121" t="n">
-        <v>1.39238511568706</v>
+        <v>0.466560861399594</v>
       </c>
       <c r="I121" t="e">
         <v>#NUM!</v>
@@ -4701,10 +4701,10 @@
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>3.36930240643484</v>
+        <v>5.81654353673321</v>
       </c>
       <c r="L121" t="n">
-        <v>0.115298811937383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1.24270226798047</v>
+        <v>1.05636108980427</v>
       </c>
       <c r="H122" t="n">
-        <v>0.271124052874909</v>
+        <v>0.122081055126298</v>
       </c>
       <c r="I122" t="e">
         <v>#NUM!</v>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>0.995944870090187</v>
+        <v>0.474441757250303</v>
       </c>
       <c r="L122" t="n">
         <v>1</v>
@@ -4765,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.08872776412997</v>
+        <v>1.01869294274562</v>
       </c>
       <c r="H123" t="n">
-        <v>0.234450732406988</v>
+        <v>0.139223347567045</v>
       </c>
       <c r="I123" t="e">
         <v>#NUM!</v>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>0.394763353839793</v>
+        <v>0.135513026787711</v>
       </c>
       <c r="L123" t="n">
         <v>1</v>
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1.09853164478461</v>
+        <v>1.4622069360331</v>
       </c>
       <c r="H124" t="n">
-        <v>0.109530463698398</v>
+        <v>0.0756678640047479</v>
       </c>
       <c r="I124" t="e">
         <v>#NUM!</v>
@@ -4815,10 +4815,10 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>0.942512889572572</v>
+        <v>7.34209947195673</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.399323821239136</v>
+        <v>0.656764827114827</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0518527742045534</v>
+        <v>0.0495691252876188</v>
       </c>
       <c r="I128" t="e">
         <v>#NUM!</v>
@@ -4937,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>-7.06948333927725</v>
+        <v>-5.57046665569595</v>
       </c>
       <c r="L128" t="n">
-        <v>0.00000000023793275021121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4963,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.336061000231139</v>
+        <v>0.525522596283787</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0312238823792876</v>
+        <v>0.0484371686370213</v>
       </c>
       <c r="I129" t="e">
         <v>#NUM!</v>
@@ -4975,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>-11.7365913474218</v>
+        <v>-6.98020395084547</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0000000000000000000000000000126615180046726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5001,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1.09518769973147</v>
+        <v>0.851884282727534</v>
       </c>
       <c r="H130" t="n">
-        <v>0.107434944544456</v>
+        <v>0.0804141515753738</v>
       </c>
       <c r="I130" t="e">
         <v>#NUM!</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0.926893745686529</v>
+        <v>-1.6982203913314</v>
       </c>
       <c r="L130" t="n">
         <v>1</v>
@@ -5039,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.729332143871704</v>
+        <v>0.832912860741082</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0698409226270485</v>
+        <v>0.0772032439780711</v>
       </c>
       <c r="I131" t="e">
         <v>#NUM!</v>
@@ -5051,10 +5051,10 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>-3.29600761428226</v>
+        <v>-1.97243442235871</v>
       </c>
       <c r="L131" t="n">
-        <v>0.150046116523697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.232755186416969</v>
+        <v>0.544229115822342</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0298945645581557</v>
+        <v>0.0405191110878029</v>
       </c>
       <c r="I132" t="e">
         <v>#NUM!</v>
@@ -5089,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>-11.3499924215776</v>
+        <v>-8.17147256241829</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0000000000000000000000000011347876775225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.195880978283611</v>
+        <v>0.435475053036271</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0178457322645557</v>
+        <v>0.0397813466419573</v>
       </c>
       <c r="I133" t="e">
         <v>#NUM!</v>
@@ -5127,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>-17.8941709807443</v>
+        <v>-9.10019844963145</v>
       </c>
       <c r="L133" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000200324107414331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5153,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.381163651269289</v>
+        <v>0.504312093478469</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0872233164333567</v>
+        <v>0.0564585561414966</v>
       </c>
       <c r="I134" t="e">
         <v>#NUM!</v>
@@ -5165,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>-4.21495586558438</v>
+        <v>-6.11478392126892</v>
       </c>
       <c r="L134" t="n">
-        <v>0.00382235371094225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5191,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.336569118951174</v>
+        <v>0.460514655430947</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0472337126827713</v>
+        <v>0.0487975229268272</v>
       </c>
       <c r="I135" t="e">
         <v>#NUM!</v>
@@ -5203,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.75944783381876</v>
+        <v>-7.31774736266344</v>
       </c>
       <c r="L135" t="n">
-        <v>0.00000000000130508911919917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.730434882110206</v>
+        <v>0.729880278755993</v>
       </c>
       <c r="H137" t="n">
-        <v>0.103820143007531</v>
+        <v>0.0776181782174944</v>
       </c>
       <c r="I137" t="e">
         <v>#NUM!</v>
@@ -5269,10 +5269,10 @@
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>-2.20998245175546</v>
+        <v>-2.96091563697038</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="138">
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.222170108538121</v>
+        <v>0.417898939469722</v>
       </c>
       <c r="H138" t="n">
-        <v>0.050662583321586</v>
+        <v>0.0464968868224725</v>
       </c>
       <c r="I138" t="e">
         <v>#NUM!</v>
@@ -5307,10 +5307,10 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>-6.59684374843381</v>
+        <v>-7.84188767446679</v>
       </c>
       <c r="L138" t="n">
-        <v>0.00000000642604586508421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.196177147109795</v>
+        <v>0.381606129623924</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0272997744739375</v>
+        <v>0.0401654606529056</v>
       </c>
       <c r="I139" t="e">
         <v>#NUM!</v>
@@ -5345,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>-11.7041633718491</v>
+        <v>-9.15280119387308</v>
       </c>
       <c r="L139" t="n">
-        <v>0.000000000000000000000000000018566582768876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5371,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.346824581585462</v>
+        <v>0.559967186994062</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0695050559663216</v>
+        <v>0.0609250618643726</v>
       </c>
       <c r="I140" t="e">
         <v>#NUM!</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>-5.28400537092889</v>
+        <v>-5.32969739975576</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0000193376000823378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5409,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.343729334559944</v>
+        <v>0.39011894110387</v>
       </c>
       <c r="H141" t="n">
-        <v>0.040741077958616</v>
+        <v>0.0334873532324707</v>
       </c>
       <c r="I141" t="e">
         <v>#NUM!</v>
@@ -5421,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>-9.00979631315017</v>
+        <v>-10.965941820349</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0000000000000000315852514733343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5475,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.745974249656386</v>
+        <v>0.618308490561343</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0903728100044646</v>
+        <v>0.053377320761345</v>
       </c>
       <c r="I143" t="e">
         <v>#NUM!</v>
@@ -5487,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>-2.41907211518748</v>
+        <v>-5.56908421385742</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5513,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.202154782277737</v>
+        <v>0.464017612523608</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0403280607019368</v>
+        <v>0.0501573815850425</v>
       </c>
       <c r="I144" t="e">
         <v>#NUM!</v>
@@ -5525,10 +5525,10 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>-8.01400356530023</v>
+        <v>-7.10339968393425</v>
       </c>
       <c r="L144" t="n">
-        <v>0.000000000000169881236041996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5551,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.200350645484206</v>
+        <v>0.323272619995813</v>
       </c>
       <c r="H145" t="n">
-        <v>0.023466584936956</v>
+        <v>0.0274627420954394</v>
       </c>
       <c r="I145" t="e">
         <v>#NUM!</v>
@@ -5563,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>-13.7259414952324</v>
+        <v>-13.292868100798</v>
       </c>
       <c r="L145" t="n">
-        <v>0.000000000000000000000000000000000000000108631211792538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5589,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0.460779088176669</v>
+        <v>0.630945469873289</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0212698455671328</v>
+        <v>0.0182531305009342</v>
       </c>
       <c r="I146" t="e">
         <v>#NUM!</v>
@@ -5601,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>-16.7856639521798</v>
+        <v>-15.9190776160157</v>
       </c>
       <c r="L146" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000475423933841898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.390276374820906</v>
+        <v>0.602582653033566</v>
       </c>
       <c r="H147" t="n">
-        <v>0.015059576271673</v>
+        <v>0.0153422796469165</v>
       </c>
       <c r="I147" t="e">
         <v>#NUM!</v>
@@ -5639,10 +5639,10 @@
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>-24.3838928856401</v>
+        <v>-19.8944656948968</v>
       </c>
       <c r="L147" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000387834992888561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5665,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1.71563876786731</v>
+        <v>1.20678002705247</v>
       </c>
       <c r="H148" t="n">
-        <v>0.050866218963417</v>
+        <v>0.0252774723515188</v>
       </c>
       <c r="I148" t="e">
         <v>#NUM!</v>
@@ -5677,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>18.2061277343798</v>
+        <v>8.97325313305902</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000070602255162233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -5703,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.846992376249654</v>
+        <v>0.955047118659211</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0376197812265881</v>
+        <v>0.0258645772188469</v>
       </c>
       <c r="I149" t="e">
         <v>#NUM!</v>
@@ -5715,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>-3.73884658812189</v>
+        <v>-1.6983463755943</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0282845734722822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.268575819576202</v>
+        <v>0.52283386841789</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0114383102368747</v>
+        <v>0.0141458938158284</v>
       </c>
       <c r="I150" t="e">
         <v>#NUM!</v>
@@ -5753,10 +5753,10 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>-30.8678187521653</v>
+        <v>-23.9683213141566</v>
       </c>
       <c r="L150" t="n">
-        <v>4.94255601441032e-207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5779,10 +5779,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.227481671626046</v>
+        <v>0.499330979569955</v>
       </c>
       <c r="H151" t="n">
-        <v>0.00756495003054539</v>
+        <v>0.0109918838313895</v>
       </c>
       <c r="I151" t="e">
         <v>#NUM!</v>
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>-44.5249256012554</v>
+        <v>-31.5485897246112</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -5817,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.682745628354143</v>
+        <v>0.745083955087295</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0639612853652458</v>
+        <v>0.0688704097008529</v>
       </c>
       <c r="I152" t="e">
         <v>#NUM!</v>
@@ -5829,10 +5829,10 @@
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.07368625257392</v>
+        <v>-3.18347451731029</v>
       </c>
       <c r="L152" t="n">
-        <v>0.00708004622721806</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="153">
@@ -5855,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.430999694127629</v>
+        <v>0.591527547907678</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0519550142846439</v>
+        <v>0.0377260183702753</v>
       </c>
       <c r="I153" t="e">
         <v>#NUM!</v>
@@ -5867,10 +5867,10 @@
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>-6.98200148410783</v>
+        <v>-8.23250880621333</v>
       </c>
       <c r="L153" t="n">
-        <v>0.000000000445236203817168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -5893,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.377597551254853</v>
+        <v>0.570434621559969</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0348991410592149</v>
+        <v>0.0524821796381841</v>
       </c>
       <c r="I154" t="e">
         <v>#NUM!</v>
@@ -5905,10 +5905,10 @@
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>-10.5375715864906</v>
+        <v>-6.10144828854646</v>
       </c>
       <c r="L154" t="n">
-        <v>0.00000000000000000000000887042553527905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -5931,10 +5931,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1.24174144939075</v>
+        <v>0.92090778222345</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1151718244272</v>
+        <v>0.0846834436677906</v>
       </c>
       <c r="I155" t="e">
         <v>#NUM!</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>2.33438507467381</v>
+        <v>-0.896025708689697</v>
       </c>
       <c r="L155" t="n">
         <v>1</v>
@@ -5969,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.935371645951038</v>
+        <v>0.937525628049081</v>
       </c>
       <c r="H156" t="n">
-        <v>0.112533954650194</v>
+        <v>0.059328383943552</v>
       </c>
       <c r="I156" t="e">
         <v>#NUM!</v>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.55532962664232</v>
+        <v>-1.01942586572112</v>
       </c>
       <c r="L156" t="n">
         <v>1</v>
@@ -6007,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.819476319441991</v>
+        <v>0.904094963506954</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0780637732669479</v>
+        <v>0.0836523328519719</v>
       </c>
       <c r="I157" t="e">
         <v>#NUM!</v>
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>-2.08994968254212</v>
+        <v>-1.08964858578596</v>
       </c>
       <c r="L157" t="n">
         <v>1</v>
@@ -6045,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0.967513217852681</v>
+        <v>0.946649590206828</v>
       </c>
       <c r="H158" t="n">
-        <v>0.086686141646245</v>
+        <v>0.0854924515110234</v>
       </c>
       <c r="I158" t="e">
         <v>#NUM!</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.368608833970359</v>
+        <v>-0.607086005915674</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.251218206419641</v>
+        <v>0.490170150853813</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0299003031552457</v>
+        <v>0.0306662795567281</v>
       </c>
       <c r="I159" t="e">
         <v>#NUM!</v>
@@ -6095,10 +6095,10 @@
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>-11.6066118629014</v>
+        <v>-11.3966430493594</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0000000000000000000000000000583590687661243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.220091524117422</v>
+        <v>0.472691467187472</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0199418441075201</v>
+        <v>0.0431022175431642</v>
       </c>
       <c r="I160" t="e">
         <v>#NUM!</v>
@@ -6133,10 +6133,10 @@
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>-16.706335453934</v>
+        <v>-8.21752555700523</v>
       </c>
       <c r="L160" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000180325001157381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6159,10 +6159,10 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.72377791446992</v>
+        <v>0.763111554367323</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0658201366630291</v>
+        <v>0.0695471095540686</v>
       </c>
       <c r="I161" t="e">
         <v>#NUM!</v>
@@ -6171,10 +6171,10 @@
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>-3.55478112955263</v>
+        <v>-2.96644984879555</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0578789594483471</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="162">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.584879352800492</v>
+        <v>0.881464192901429</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0892932525354454</v>
+        <v>0.0990083386006116</v>
       </c>
       <c r="I162" t="e">
         <v>#NUM!</v>
@@ -6209,10 +6209,10 @@
         <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>-3.5131418021049</v>
+        <v>-1.12329053175302</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0677546833954098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -6235,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.492219922434747</v>
+        <v>0.705319974609057</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0127957526355208</v>
+        <v>0.012006573465501</v>
       </c>
       <c r="I163" t="e">
         <v>#NUM!</v>
@@ -6247,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>-27.2668668215145</v>
+        <v>-20.5079179095833</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160451348286546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -6273,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1.60409331711369</v>
+        <v>1.14333999130034</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0628511441722006</v>
+        <v>0.0310379005586971</v>
       </c>
       <c r="I164" t="e">
         <v>#NUM!</v>
@@ -6285,10 +6285,10 @@
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>12.0606910080066</v>
+        <v>4.93444237379205</v>
       </c>
       <c r="L164" t="n">
-        <v>0.000000000000000000000000000000260631871718951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6311,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.779724451803493</v>
+        <v>0.888416098527684</v>
       </c>
       <c r="H165" t="n">
-        <v>0.112566683391776</v>
+        <v>0.0929165792811648</v>
       </c>
       <c r="I165" t="e">
         <v>#NUM!</v>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>-1.72348416820541</v>
+        <v>-1.1312621539305</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -6349,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.321583709261748</v>
+        <v>0.713171112018542</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0489126770356775</v>
+        <v>0.0798256901550254</v>
       </c>
       <c r="I166" t="e">
         <v>#NUM!</v>
@@ -6361,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>-7.45892279026196</v>
+        <v>-3.02003040454852</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0000000000133466036467655</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="167">
@@ -6387,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.270636854714019</v>
+        <v>0.570657134653547</v>
       </c>
       <c r="H167" t="n">
-        <v>0.00603902589054368</v>
+        <v>0.0083007445355511</v>
       </c>
       <c r="I167" t="e">
         <v>#NUM!</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>-58.5717386708033</v>
+        <v>-38.5651740629118</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -6425,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.558280617904708</v>
+        <v>0.676852709060663</v>
       </c>
       <c r="H168" t="n">
-        <v>0.1353893475858</v>
+        <v>0.0943980772330658</v>
       </c>
       <c r="I168" t="e">
         <v>#NUM!</v>
@@ -6437,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>-2.40357290631623</v>
+        <v>-2.79853889961062</v>
       </c>
       <c r="L168" t="n">
-        <v>1</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="169">
@@ -6463,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.492964150883723</v>
+        <v>0.61807082582659</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0585617221455506</v>
+        <v>0.0407207744358378</v>
       </c>
       <c r="I169" t="e">
         <v>#NUM!</v>
@@ -6475,10 +6475,10 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>-5.95410808673812</v>
+        <v>-7.30305737201055</v>
       </c>
       <c r="L169" t="n">
-        <v>0.000000400085741116448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6529,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.780903382385017</v>
+        <v>0.77851768199107</v>
       </c>
       <c r="H171" t="n">
-        <v>0.139389990698617</v>
+        <v>0.0910982787666929</v>
       </c>
       <c r="I171" t="e">
         <v>#NUM!</v>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>-1.38546827915147</v>
+        <v>-2.13958455369013</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -6567,10 +6567,10 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.306958949833159</v>
+        <v>0.547624966596386</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0743309533307882</v>
+        <v>0.076201108577257</v>
       </c>
       <c r="I172" t="e">
         <v>#NUM!</v>
@@ -6579,10 +6579,10 @@
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.8772572779465</v>
+        <v>-4.32750089528866</v>
       </c>
       <c r="L172" t="n">
-        <v>0.000164583769359616</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="173">
@@ -6605,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.271046053199166</v>
+        <v>0.500065983066269</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0320038015981255</v>
+        <v>0.0325900661023443</v>
       </c>
       <c r="I173" t="e">
         <v>#NUM!</v>
@@ -6617,10 +6617,10 @@
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>-11.0562350127271</v>
+        <v>-10.6337108291888</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0000000000000000000000000312889044227915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -6643,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.507985063809976</v>
+        <v>0.751549114929546</v>
       </c>
       <c r="H174" t="n">
-        <v>0.109668758144487</v>
+        <v>0.10292804603507</v>
       </c>
       <c r="I174" t="e">
         <v>#NUM!</v>
@@ -6655,10 +6655,10 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.13726472565291</v>
+        <v>-2.08550051743769</v>
       </c>
       <c r="L174" t="n">
-        <v>0.260914079081402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -6681,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.503451534927516</v>
+        <v>0.523590581222707</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0506129215088401</v>
+        <v>0.0274283570549565</v>
       </c>
       <c r="I175" t="e">
         <v>#NUM!</v>
@@ -6693,10 +6693,10 @@
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>-6.82637123052554</v>
+        <v>-12.3516982538247</v>
       </c>
       <c r="L175" t="n">
-        <v>0.00000000133246772477316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -6747,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.79751642342966</v>
+        <v>0.659511027819042</v>
       </c>
       <c r="H177" t="n">
-        <v>0.129162657508187</v>
+        <v>0.0649906209857633</v>
       </c>
       <c r="I177" t="e">
         <v>#NUM!</v>
@@ -6759,10 +6759,10 @@
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.39700102116197</v>
+        <v>-4.22408348100765</v>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="178">
@@ -6785,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.279304988776552</v>
+        <v>0.608060001015597</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0601865685530694</v>
+        <v>0.0830805055718608</v>
       </c>
       <c r="I178" t="e">
         <v>#NUM!</v>
@@ -6797,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>-5.91892543962051</v>
+        <v>-3.64103143880243</v>
       </c>
       <c r="L178" t="n">
-        <v>0.000000495799284148098</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="179">
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.276812322507711</v>
+        <v>0.423624328770425</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0275891221035051</v>
+        <v>0.0218193258912026</v>
       </c>
       <c r="I179" t="e">
         <v>#NUM!</v>
@@ -6835,10 +6835,10 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>-12.8870373962289</v>
+        <v>-16.6757866730472</v>
       </c>
       <c r="L179" t="n">
-        <v>0.00000000000000000000000000000000000814731355039023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -6861,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.674891305107941</v>
+        <v>0.846811242632873</v>
       </c>
       <c r="H180" t="n">
-        <v>0.0651189190863882</v>
+        <v>0.0787121193343653</v>
       </c>
       <c r="I180" t="e">
         <v>#NUM!</v>
@@ -6873,10 +6873,10 @@
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>-4.07515534832971</v>
+        <v>-1.788868428713</v>
       </c>
       <c r="L180" t="n">
-        <v>0.00703549686220365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -6899,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.571627790223606</v>
+        <v>0.808744637324751</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0519617010943201</v>
+        <v>0.0733911383796918</v>
       </c>
       <c r="I181" t="e">
         <v>#NUM!</v>
@@ -6911,10 +6911,10 @@
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>-6.1524676055804</v>
+        <v>-2.33916379021887</v>
       </c>
       <c r="L181" t="n">
-        <v>0.000000116718432694709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>2.51285207347736</v>
+        <v>1.61965644114707</v>
       </c>
       <c r="H182" t="n">
-        <v>0.23090684583024</v>
+        <v>0.148388608254908</v>
       </c>
       <c r="I182" t="e">
         <v>#NUM!</v>
@@ -6949,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>10.0273688696605</v>
+        <v>5.26334943609088</v>
       </c>
       <c r="L182" t="n">
-        <v>0.00000000000000000000176798859026283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6975,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.905514273300935</v>
+        <v>1.01868907908853</v>
       </c>
       <c r="H183" t="n">
-        <v>0.10480549856017</v>
+        <v>0.0604950234015124</v>
       </c>
       <c r="I183" t="e">
         <v>#NUM!</v>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>-0.85753438708141</v>
+        <v>0.311804855367701</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7013,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.371074903235893</v>
+        <v>0.685134257797156</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0354684885361579</v>
+        <v>0.0633586339403144</v>
       </c>
       <c r="I184" t="e">
         <v>#NUM!</v>
@@ -7025,10 +7025,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>-10.3716176867184</v>
+        <v>-4.08905573628635</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0000000000000000000000510752272605162</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="185">
@@ -7051,10 +7051,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.314297614058379</v>
+        <v>0.654335498803891</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0282674345751973</v>
+        <v>0.0590610280022213</v>
       </c>
       <c r="I185" t="e">
         <v>#NUM!</v>
@@ -7063,10 +7063,10 @@
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>-12.868969375525</v>
+        <v>-4.69898066486124</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0000000000000000000000000000000000102959937383225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7089,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.631274190896859</v>
+        <v>0.793907242088408</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0914318901193052</v>
+        <v>0.0832131928513175</v>
       </c>
       <c r="I186" t="e">
         <v>#NUM!</v>
@@ -7101,10 +7101,10 @@
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>-3.17608639581767</v>
+        <v>-2.20187175687539</v>
       </c>
       <c r="L186" t="n">
-        <v>0.228393024571128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.553057442733258</v>
+        <v>0.765597779505446</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0128660639150117</v>
+        <v>0.0121167974437633</v>
       </c>
       <c r="I187" t="e">
         <v>#NUM!</v>
@@ -7139,10 +7139,10 @@
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>-25.4601780156932</v>
+        <v>-16.8765629973555</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000083324707495874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1.81874683311286</v>
+        <v>1.23597854434478</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0396718461350278</v>
+        <v>0.0190179257093596</v>
       </c>
       <c r="I188" t="e">
         <v>#NUM!</v>
@@ -7177,10 +7177,10 @@
         <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>27.4219468096522</v>
+        <v>13.7690159415274</v>
       </c>
       <c r="L188" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000229736813822015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -7203,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.87609702837292</v>
+        <v>0.964341599267324</v>
       </c>
       <c r="H189" t="n">
-        <v>0.126177228841068</v>
+        <v>0.100717242051771</v>
       </c>
       <c r="I189" t="e">
         <v>#NUM!</v>
@@ -7215,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.918460022887777</v>
+        <v>-0.347655920942992</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -7241,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.347092943010879</v>
+        <v>0.64233092533922</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0500632724735064</v>
+        <v>0.0670546924226365</v>
       </c>
       <c r="I190" t="e">
         <v>#NUM!</v>
@@ -7253,10 +7253,10 @@
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.33633227072719</v>
+        <v>-4.24025273150399</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0000000000335875733640793</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="191">
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.304087095941043</v>
+        <v>0.619426431800484</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0058324651338396</v>
+        <v>0.00835245121817608</v>
       </c>
       <c r="I191" t="e">
         <v>#NUM!</v>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>-62.0660002929718</v>
+        <v>-35.5202689021657</v>
       </c>
       <c r="L191" t="n">
         <v>0</v>

--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_season_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_season_LMB.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.806894511460617</v>
+        <v>0.806894511527605</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0902626890121446</v>
+        <v>0.0902626890281051</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.91805909292759</v>
+        <v>-1.91805909200552</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.645651656549176</v>
+        <v>0.645651656539064</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00917148459720282</v>
+        <v>0.00917148459690653</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-30.7986636860888</v>
+        <v>-30.798663687704</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.04661626773175</v>
+        <v>1.04661626774275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0264884636899569</v>
+        <v>0.0264884636905745</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.800266934792</v>
+        <v>1.80026693518426</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.800168606154522</v>
+        <v>0.80016860607556</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0897055388561325</v>
+        <v>0.0897055388556336</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.98854878730234</v>
+        <v>-1.9885487879974</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.77095544598149</v>
+        <v>0.770955446037391</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0878427688068737</v>
+        <v>0.0878427688212459</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.28299440588269</v>
+        <v>-2.28299440503832</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.616894344618247</v>
+        <v>0.616894344602101</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0165133081613456</v>
+        <v>0.0165133081610238</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-18.0457751574743</v>
+        <v>-18.0457751583314</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.627433958637207</v>
+        <v>0.627433958602343</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0697424905167372</v>
+        <v>0.0697424905055744</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.19339119787546</v>
+        <v>-4.19339119881354</v>
       </c>
       <c r="L8" t="n">
         <v>0.004</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.619592650962479</v>
+        <v>0.619592650944754</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0861829085510776</v>
+        <v>0.0861829085470962</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.44145596080156</v>
+        <v>-3.44145596106777</v>
       </c>
       <c r="L9" t="n">
         <v>0.089</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.565783569054377</v>
+        <v>0.565783569050805</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0368048797946356</v>
+        <v>0.0368048797939713</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-8.75531850401898</v>
+        <v>-8.7553185042188</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.767873175690476</v>
+        <v>0.76787317560476</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0961576189688975</v>
+        <v>0.0961576189566994</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-2.10923354763715</v>
+        <v>-2.10923354856069</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.70118653803979</v>
+        <v>0.701186537977149</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0868001359389384</v>
+        <v>0.0868001359379861</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.86760064783461</v>
+        <v>-2.86760064833156</v>
       </c>
       <c r="L13" t="n">
         <v>0.633</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.876298485902336</v>
+        <v>0.876298485910526</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0574921183471181</v>
+        <v>0.0574921183469477</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-2.01269168038789</v>
+        <v>-2.01269168027021</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.591996006621674</v>
+        <v>0.591996006598516</v>
       </c>
       <c r="H15" t="n">
-        <v>0.083334690143336</v>
+        <v>0.0833346901386825</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.72422452899222</v>
+        <v>-3.72422452933239</v>
       </c>
       <c r="L15" t="n">
         <v>0.03</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.540583580150683</v>
+        <v>0.540583580141587</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0370153184702524</v>
+        <v>0.0370153184693067</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-8.98320553908886</v>
+        <v>-8.98320553941296</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.416571024892887</v>
+        <v>0.416571024803953</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0715404104045065</v>
+        <v>0.0715404103555121</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>-5.09908369150672</v>
+        <v>-5.09908369515335</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.687969926417134</v>
+        <v>0.68796992637866</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0939617477633459</v>
+        <v>0.0939617477537928</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-2.73843073358374</v>
+        <v>-2.73843073411848</v>
       </c>
       <c r="L19" t="n">
         <v>0.945</v>
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.479296118484896</v>
+        <v>0.479296118500215</v>
       </c>
       <c r="H20" t="n">
-        <v>0.024617855984561</v>
+        <v>0.024617855986942</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-14.3185475654058</v>
+        <v>-14.3185475638563</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.852614457832649</v>
+        <v>0.852614457714183</v>
       </c>
       <c r="H22" t="n">
-        <v>0.104371784976554</v>
+        <v>0.10437178495684</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.30253127756509</v>
+        <v>-1.30253127876518</v>
       </c>
       <c r="L22" t="n">
         <v>1</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.59400096502985</v>
+        <v>0.594000964999522</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0632667905556599</v>
+        <v>0.0632667905586196</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.89039913241678</v>
+        <v>-4.89039913241768</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.74234475141998</v>
+        <v>0.742344751455333</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0386208576968557</v>
+        <v>0.0386208577010846</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.72683612356873</v>
+        <v>-5.72683612229899</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.657327759588636</v>
+        <v>0.657327759544966</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0908970509101764</v>
+        <v>0.0908970509001243</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.03416509599082</v>
+        <v>-3.03416509660521</v>
       </c>
       <c r="L25" t="n">
         <v>0.369</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.457948278908023</v>
+        <v>0.457948278917847</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0255002058413214</v>
+        <v>0.0255002058433439</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-14.0256578148835</v>
+        <v>-14.0256578136868</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.22858971453345</v>
+        <v>1.2285897145194</v>
       </c>
       <c r="H28" t="n">
-        <v>0.112878769326398</v>
+        <v>0.112878769332676</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.24068710279387</v>
+        <v>2.24068710251919</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.775173114717797</v>
+        <v>0.775173114703754</v>
       </c>
       <c r="H29" t="n">
-        <v>0.071623715593157</v>
+        <v>0.0716237155964431</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.75624467924182</v>
+        <v>-2.75624467926151</v>
       </c>
       <c r="L29" t="n">
         <v>0.895</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.740326849673318</v>
+        <v>0.740326849672927</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0667623748603438</v>
+        <v>0.0667623748648762</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.33405250159734</v>
+        <v>-3.33405250137509</v>
       </c>
       <c r="L30" t="n">
         <v>0.131</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.48263752894106</v>
+        <v>1.48263752892013</v>
       </c>
       <c r="H31" t="n">
-        <v>0.135002786580929</v>
+        <v>0.135002786588233</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.32506768774099</v>
+        <v>4.32506768729081</v>
       </c>
       <c r="L31" t="n">
         <v>0.002</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.960687058478811</v>
+        <v>0.96068705838165</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0721093839526125</v>
+        <v>0.0721093839531676</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.534325152229902</v>
+        <v>-0.534325153519166</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.917501407133381</v>
+        <v>0.917501407056725</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0658778339141142</v>
+        <v>0.0658778339166097</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.19915813425222</v>
+        <v>-1.19915813527022</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.14663509674885</v>
+        <v>1.1466350967662</v>
       </c>
       <c r="H34" t="n">
-        <v>0.103747332853404</v>
+        <v>0.103747332861981</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1.51228921667194</v>
+        <v>1.51228921673706</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.740646919618178</v>
+        <v>0.740646919596974</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0702877992554738</v>
+        <v>0.0702877992577953</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.16364090920068</v>
+        <v>-3.16364090930728</v>
       </c>
       <c r="L35" t="n">
         <v>0.238</v>
@@ -1719,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.707352706525161</v>
+        <v>0.707352706517352</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0656022353781907</v>
+        <v>0.0656022353817783</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-3.73316240801665</v>
+        <v>-3.73316240789031</v>
       </c>
       <c r="L36" t="n">
         <v>0.029</v>
@@ -1757,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.4166008829141</v>
+        <v>1.41660088287921</v>
       </c>
       <c r="H37" t="n">
-        <v>0.132589089425266</v>
+        <v>0.132589089430697</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.72086263310626</v>
+        <v>3.72086263259902</v>
       </c>
       <c r="L37" t="n">
         <v>0.03</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.915402483684154</v>
+        <v>0.915402483670631</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0137974798971007</v>
+        <v>0.0137974798966685</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.86438553033952</v>
+        <v>-5.86438553141674</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.726744661222566</v>
+        <v>0.726744661235944</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0758158030668045</v>
+        <v>0.075815803072344</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-3.05955241315849</v>
+        <v>-3.05955241281481</v>
       </c>
       <c r="L39" t="n">
         <v>0.339</v>
@@ -1871,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.700830108862359</v>
+        <v>0.700830108869874</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00916894982036112</v>
+        <v>0.00916894982053378</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-27.171916500991</v>
+        <v>-27.1719164999511</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.13141782927354</v>
+        <v>1.13141782927834</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0138229158065619</v>
+        <v>0.0138229158066658</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>10.1062560938062</v>
+        <v>10.1062560941205</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.900668737858972</v>
+        <v>0.900668737800778</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0765048643211872</v>
+        <v>0.0765048643236415</v>
       </c>
       <c r="I42" t="e">
         <v>#NUM!</v>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.2316332725522</v>
+        <v>-1.23163327319377</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.868552331077003</v>
+        <v>0.86855233101421</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0972531670238628</v>
+        <v>0.0972531670259449</v>
       </c>
       <c r="I43" t="e">
         <v>#NUM!</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.25860021593061</v>
+        <v>-1.25860021645834</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.08546164445406</v>
+        <v>1.0854616444827</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0164432800365355</v>
+        <v>0.0164432800368264</v>
       </c>
       <c r="I44" t="e">
         <v>#NUM!</v>
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>5.41337794452499</v>
+        <v>5.41337794631377</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.69437546847765</v>
+        <v>0.694375468483133</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0739814487897527</v>
+        <v>0.0739814487942718</v>
       </c>
       <c r="I45" t="e">
         <v>#NUM!</v>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.42340153523707</v>
+        <v>-3.42340153498087</v>
       </c>
       <c r="L45" t="n">
         <v>0.095</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.669615149763734</v>
+        <v>0.669615149763876</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0174290891727753</v>
+        <v>0.0174290891730255</v>
       </c>
       <c r="I46" t="e">
         <v>#NUM!</v>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.4081824217699</v>
+        <v>-15.4081824215438</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.0810245016787</v>
+        <v>1.08102450167193</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0276618140437445</v>
+        <v>0.0276618140439398</v>
       </c>
       <c r="I47" t="e">
         <v>#NUM!</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.04469397641184</v>
+        <v>3.04469397612631</v>
       </c>
       <c r="L47" t="n">
         <v>0.356</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.28602301541536</v>
+        <v>1.28602301559359</v>
       </c>
       <c r="H48" t="n">
-        <v>0.201990213412559</v>
+        <v>0.201990213439608</v>
       </c>
       <c r="I48" t="e">
         <v>#NUM!</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1.60158702827409</v>
+        <v>1.60158702916394</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.02903524372754</v>
+        <v>1.02903524376861</v>
       </c>
       <c r="H49" t="n">
-        <v>0.114720091781507</v>
+        <v>0.114720091774135</v>
       </c>
       <c r="I49" t="e">
         <v>#NUM!</v>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0.256735716498083</v>
+        <v>0.256735716882777</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1.66808992934494</v>
+        <v>1.66808992945516</v>
       </c>
       <c r="H50" t="n">
-        <v>0.188813550681997</v>
+        <v>0.188813550675585</v>
       </c>
       <c r="I50" t="e">
         <v>#NUM!</v>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>4.5204750706758</v>
+        <v>4.5204750717118</v>
       </c>
       <c r="L50" t="n">
         <v>0.001</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.04205828707977</v>
+        <v>1.04205828709326</v>
       </c>
       <c r="H51" t="n">
-        <v>0.145154393883516</v>
+        <v>0.145154393882823</v>
       </c>
       <c r="I51" t="e">
         <v>#NUM!</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.295758127302929</v>
+        <v>0.295758127401115</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.987502576858034</v>
+        <v>0.987502576884656</v>
       </c>
       <c r="H54" t="n">
-        <v>0.175265198353641</v>
+        <v>0.175265198349305</v>
       </c>
       <c r="I54" t="e">
         <v>#NUM!</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0708583512201663</v>
+        <v>-0.070858351071935</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.901742026018586</v>
+        <v>0.901742026062999</v>
       </c>
       <c r="H55" t="n">
-        <v>0.115335475603683</v>
+        <v>0.115335475599925</v>
       </c>
       <c r="I55" t="e">
         <v>#NUM!</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.808634927912254</v>
+        <v>-0.808634927593359</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.913154099189985</v>
+        <v>0.913154099210342</v>
       </c>
       <c r="H57" t="n">
-        <v>0.135922891322433</v>
+        <v>0.135922891323543</v>
       </c>
       <c r="I57" t="e">
         <v>#NUM!</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.610350646178583</v>
+        <v>-0.610350646037432</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.663928082244199</v>
+        <v>0.663928082139349</v>
       </c>
       <c r="H60" t="n">
-        <v>0.135440842488095</v>
+        <v>0.135440842417271</v>
       </c>
       <c r="I60" t="e">
         <v>#NUM!</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>-2.00775939124946</v>
+        <v>-2.00775939275641</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -2619,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.09648181604867</v>
+        <v>1.09648181604828</v>
       </c>
       <c r="H61" t="n">
-        <v>0.192456845531119</v>
+        <v>0.192456845517672</v>
       </c>
       <c r="I61" t="e">
         <v>#NUM!</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.524758301050112</v>
+        <v>0.524758301084549</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
@@ -2657,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.763898912207321</v>
+        <v>0.763898912274184</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0928584310525138</v>
+        <v>0.092858431053611</v>
       </c>
       <c r="I62" t="e">
         <v>#NUM!</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.21555662122212</v>
+        <v>-2.21555662066981</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1.11035843525329</v>
+        <v>1.11035843522296</v>
       </c>
       <c r="H64" t="n">
-        <v>0.164022119688661</v>
+        <v>0.164022119667154</v>
       </c>
       <c r="I64" t="e">
         <v>#NUM!</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0.708657568004375</v>
+        <v>0.708657567893016</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.773566500087362</v>
+        <v>0.773566500134218</v>
       </c>
       <c r="H65" t="n">
-        <v>0.104283192345617</v>
+        <v>0.104283192349616</v>
       </c>
       <c r="I65" t="e">
         <v>#NUM!</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>-1.90450900395196</v>
+        <v>-1.90450900354498</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -2799,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.847136864165157</v>
+        <v>0.847136864197583</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0676169499719751</v>
+        <v>0.0676169499760599</v>
       </c>
       <c r="I66" t="e">
         <v>#NUM!</v>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.07838544456068</v>
+        <v>-2.07838544403512</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1.95811797818843</v>
+        <v>1.95811797827485</v>
       </c>
       <c r="H70" t="n">
-        <v>0.281026041998921</v>
+        <v>0.281026042001463</v>
       </c>
       <c r="I70" t="e">
         <v>#NUM!</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>4.68221216820307</v>
+        <v>4.68221216867486</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1.23546566781543</v>
+        <v>1.2354656678617</v>
       </c>
       <c r="H71" t="n">
-        <v>0.177719857128329</v>
+        <v>0.17771985712861</v>
       </c>
       <c r="I71" t="e">
         <v>#NUM!</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1.46993530618326</v>
+        <v>1.46993530649633</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.17992792624951</v>
+        <v>1.17992792631445</v>
       </c>
       <c r="H72" t="n">
-        <v>0.168064734399258</v>
+        <v>0.168064734402442</v>
       </c>
       <c r="I72" t="e">
         <v>#NUM!</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>1.16159429463698</v>
+        <v>1.16159429506532</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2.36301766669016</v>
+        <v>2.3630176667881</v>
       </c>
       <c r="H73" t="n">
-        <v>0.337896249911925</v>
+        <v>0.337896249913983</v>
       </c>
       <c r="I73" t="e">
         <v>#NUM!</v>
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>6.01383463473155</v>
+        <v>6.01383463523403</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.25110120901795</v>
+        <v>1.25110120903108</v>
       </c>
       <c r="H74" t="n">
-        <v>0.13970846148669</v>
+        <v>0.139708461478049</v>
       </c>
       <c r="I74" t="e">
         <v>#NUM!</v>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.00615523062334</v>
+        <v>2.00615523086242</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1.19486060482365</v>
+        <v>1.1948606048572</v>
       </c>
       <c r="H75" t="n">
-        <v>0.130848203992801</v>
+        <v>0.13084820398677</v>
       </c>
       <c r="I75" t="e">
         <v>#NUM!</v>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1.62570417688063</v>
+        <v>1.62570417725762</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.30849832014504</v>
+        <v>1.30849832015261</v>
       </c>
       <c r="H76" t="n">
-        <v>0.13665196677563</v>
+        <v>0.136651966783791</v>
       </c>
       <c r="I76" t="e">
         <v>#NUM!</v>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>2.57463719634452</v>
+        <v>2.57463719626107</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.45896228771617</v>
+        <v>1.45896228777569</v>
       </c>
       <c r="H80" t="n">
-        <v>0.162887545048089</v>
+        <v>0.162887545037813</v>
       </c>
       <c r="I80" t="e">
         <v>#NUM!</v>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>3.38323684869576</v>
+        <v>3.38323684941258</v>
       </c>
       <c r="L80" t="n">
         <v>0.11</v>
@@ -3309,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1.15828072615174</v>
+        <v>1.15828072623742</v>
       </c>
       <c r="H81" t="n">
-        <v>0.175803958852529</v>
+        <v>0.175803958860239</v>
       </c>
       <c r="I81" t="e">
         <v>#NUM!</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>0.968089872903285</v>
+        <v>0.968089873419828</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1.11697828785769</v>
+        <v>1.11697828793173</v>
       </c>
       <c r="H82" t="n">
-        <v>0.124478880894225</v>
+        <v>0.124478880889549</v>
       </c>
       <c r="I82" t="e">
         <v>#NUM!</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0.992682837002429</v>
+        <v>0.992682837700365</v>
       </c>
       <c r="L82" t="n">
         <v>1</v>
@@ -3385,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1.80324608462537</v>
+        <v>1.80324608473322</v>
       </c>
       <c r="H83" t="n">
-        <v>0.200565687562567</v>
+        <v>0.200565687553644</v>
       </c>
       <c r="I83" t="e">
         <v>#NUM!</v>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>5.30087187310232</v>
+        <v>5.30087187419295</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1.17293944673752</v>
+        <v>1.17293944679267</v>
       </c>
       <c r="H84" t="n">
-        <v>0.13903504743427</v>
+        <v>0.13903504743272</v>
       </c>
       <c r="I84" t="e">
         <v>#NUM!</v>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>1.34569685717675</v>
+        <v>1.34569685765167</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1.13111430191059</v>
+        <v>1.13111430195508</v>
       </c>
       <c r="H85" t="n">
-        <v>0.157436893268949</v>
+        <v>0.157436893272382</v>
       </c>
       <c r="I85" t="e">
         <v>#NUM!</v>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>0.885160781361655</v>
+        <v>0.885160781659748</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1.23868939855163</v>
+        <v>1.23868939857273</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0810905767719536</v>
+        <v>0.0810905767724046</v>
       </c>
       <c r="I86" t="e">
         <v>#NUM!</v>
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>3.26975448198011</v>
+        <v>3.2697544822779</v>
       </c>
       <c r="L86" t="n">
         <v>0.165</v>
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1.93699144501971</v>
+        <v>1.93699144559405</v>
       </c>
       <c r="H90" t="n">
-        <v>0.396074603204476</v>
+        <v>0.396074603201308</v>
       </c>
       <c r="I90" t="e">
         <v>#NUM!</v>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>3.23326641815879</v>
+        <v>3.23326642059343</v>
       </c>
       <c r="L90" t="n">
         <v>0.187</v>
@@ -3659,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1.54991974469466</v>
+        <v>1.54991974500128</v>
       </c>
       <c r="H91" t="n">
-        <v>0.266511135727783</v>
+        <v>0.266511135655166</v>
       </c>
       <c r="I91" t="e">
         <v>#NUM!</v>
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>2.54841027778335</v>
+        <v>2.54841028013238</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2.51245575229547</v>
+        <v>2.51245575285826</v>
       </c>
       <c r="H92" t="n">
-        <v>0.434805364542669</v>
+        <v>0.434805364438372</v>
       </c>
       <c r="I92" t="e">
         <v>#NUM!</v>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>5.32336267872661</v>
+        <v>5.32336268249034</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.93848819804036</v>
+        <v>0.938488198078147</v>
       </c>
       <c r="H93" t="n">
-        <v>0.128366299463585</v>
+        <v>0.128366299462874</v>
       </c>
       <c r="I93" t="e">
         <v>#NUM!</v>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.464139902600885</v>
+        <v>-0.464139902327777</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1.48736377217257</v>
+        <v>1.48736377244756</v>
       </c>
       <c r="H96" t="n">
-        <v>0.328022298744835</v>
+        <v>0.328022298709448</v>
       </c>
       <c r="I96" t="e">
         <v>#NUM!</v>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1.80015584901985</v>
+        <v>1.80015585038519</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1.35819232554606</v>
+        <v>1.35819232582745</v>
       </c>
       <c r="H97" t="n">
-        <v>0.248572723103392</v>
+        <v>0.248572723051361</v>
       </c>
       <c r="I97" t="e">
         <v>#NUM!</v>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>1.67281784446532</v>
+        <v>1.67281784629405</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.822395786979979</v>
+        <v>0.822395787020778</v>
       </c>
       <c r="H99" t="n">
-        <v>0.120483569744594</v>
+        <v>0.120483569745935</v>
       </c>
       <c r="I99" t="e">
         <v>#NUM!</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.33467104948835</v>
+        <v>-1.33467104920108</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.65150691072196</v>
+        <v>1.65150691098218</v>
       </c>
       <c r="H102" t="n">
-        <v>0.361630369345433</v>
+        <v>0.361630369291159</v>
       </c>
       <c r="I102" t="e">
         <v>#NUM!</v>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>2.29112795154251</v>
+        <v>2.29112795296695</v>
       </c>
       <c r="L102" t="n">
         <v>1</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1.15057478759627</v>
+        <v>1.15057478787869</v>
       </c>
       <c r="H103" t="n">
-        <v>0.205530046186997</v>
+        <v>0.205530046149029</v>
       </c>
       <c r="I103" t="e">
         <v>#NUM!</v>
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0.785196623911994</v>
+        <v>0.785196625623844</v>
       </c>
       <c r="L103" t="n">
         <v>1</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.696681788084856</v>
+        <v>0.696681788146086</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0921145610371027</v>
+        <v>0.0921145610403699</v>
       </c>
       <c r="I105" t="e">
         <v>#NUM!</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.73354472590943</v>
+        <v>-2.73354472538801</v>
       </c>
       <c r="L105" t="n">
         <v>0.959</v>
@@ -4225,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>2.94929229619212</v>
+        <v>2.94929229678805</v>
       </c>
       <c r="H108" t="n">
-        <v>0.572937647387888</v>
+        <v>0.572937647301204</v>
       </c>
       <c r="I108" t="e">
         <v>#NUM!</v>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>5.5675378473208</v>
+        <v>5.56753785032824</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -4263,10 +4263,10 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1.86084261361461</v>
+        <v>1.86084261397817</v>
       </c>
       <c r="H109" t="n">
-        <v>0.361942104885768</v>
+        <v>0.361942104828727</v>
       </c>
       <c r="I109" t="e">
         <v>#NUM!</v>
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>3.1928807458759</v>
+        <v>3.19288074800736</v>
       </c>
       <c r="L109" t="n">
         <v>0.216</v>
@@ -4301,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1.77719237641091</v>
+        <v>1.77719237678938</v>
       </c>
       <c r="H110" t="n">
-        <v>0.34382450193311</v>
+        <v>0.343824501883746</v>
       </c>
       <c r="I110" t="e">
         <v>#NUM!</v>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>2.97229389198161</v>
+        <v>2.97229389414213</v>
       </c>
       <c r="L110" t="n">
         <v>0.452</v>
@@ -4339,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>3.55914703698437</v>
+        <v>3.55914703769396</v>
       </c>
       <c r="H111" t="n">
-        <v>0.690027849236143</v>
+        <v>0.69002784912891</v>
       </c>
       <c r="I111" t="e">
         <v>#NUM!</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>6.5481583462319</v>
+        <v>6.54815834958336</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.12675436084075</v>
+        <v>1.12675436088335</v>
       </c>
       <c r="H112" t="n">
-        <v>0.122266316137736</v>
+        <v>0.122266316127672</v>
       </c>
       <c r="I112" t="e">
         <v>#NUM!</v>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1.09979822194658</v>
+        <v>1.09979822242711</v>
       </c>
       <c r="L112" t="n">
         <v>1</v>
@@ -4415,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.07610350575766</v>
+        <v>1.07610350581727</v>
       </c>
       <c r="H113" t="n">
-        <v>0.114374830940692</v>
+        <v>0.114374830932836</v>
       </c>
       <c r="I113" t="e">
         <v>#NUM!</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>0.690087047675175</v>
+        <v>0.690087048282006</v>
       </c>
       <c r="L113" t="n">
         <v>1</v>
@@ -4453,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.54461265410112</v>
+        <v>1.54461265405093</v>
       </c>
       <c r="H114" t="n">
-        <v>0.129616232440292</v>
+        <v>0.129616232445161</v>
       </c>
       <c r="I114" t="e">
         <v>#NUM!</v>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>5.18111139924434</v>
+        <v>5.18111139849417</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>2.19747036875532</v>
+        <v>2.19747036919199</v>
       </c>
       <c r="H118" t="n">
-        <v>0.378087164045551</v>
+        <v>0.378087163943076</v>
       </c>
       <c r="I118" t="e">
         <v>#NUM!</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>4.57588533700682</v>
+        <v>4.57588534031132</v>
       </c>
       <c r="L118" t="n">
         <v>0.001</v>
@@ -4613,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1.74458764002953</v>
+        <v>1.7445876404341</v>
       </c>
       <c r="H119" t="n">
-        <v>0.349686432531529</v>
+        <v>0.349686432496781</v>
       </c>
       <c r="I119" t="e">
         <v>#NUM!</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>2.77647261877365</v>
+        <v>2.77647262085036</v>
       </c>
       <c r="L119" t="n">
         <v>0.841</v>
@@ -4651,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1.68237843484809</v>
+        <v>1.6823784352253</v>
       </c>
       <c r="H120" t="n">
-        <v>0.289245372318634</v>
+        <v>0.289245372247456</v>
       </c>
       <c r="I120" t="e">
         <v>#NUM!</v>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>3.02576183269578</v>
+        <v>3.02576183542291</v>
       </c>
       <c r="L120" t="n">
         <v>0.379</v>
@@ -4689,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>2.716026227615</v>
+        <v>2.71602622820637</v>
       </c>
       <c r="H121" t="n">
-        <v>0.466560861399594</v>
+        <v>0.466560861281385</v>
       </c>
       <c r="I121" t="e">
         <v>#NUM!</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>5.81654353673321</v>
+        <v>5.81654354074088</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1.05636108980427</v>
+        <v>1.05636108988279</v>
       </c>
       <c r="H122" t="n">
-        <v>0.122081055126298</v>
+        <v>0.122081055123229</v>
       </c>
       <c r="I122" t="e">
         <v>#NUM!</v>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>0.474441757250303</v>
+        <v>0.4744417579407</v>
       </c>
       <c r="L122" t="n">
         <v>1</v>
@@ -4765,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.01869294274562</v>
+        <v>1.01869294281351</v>
       </c>
       <c r="H123" t="n">
-        <v>0.139223347567045</v>
+        <v>0.139223347569969</v>
       </c>
       <c r="I123" t="e">
         <v>#NUM!</v>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>0.135513026787711</v>
+        <v>0.135513027281559</v>
       </c>
       <c r="L123" t="n">
         <v>1</v>
@@ -4803,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1.4622069360331</v>
+        <v>1.46220693600205</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0756678640047479</v>
+        <v>0.075667864007999</v>
       </c>
       <c r="I124" t="e">
         <v>#NUM!</v>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>7.34209947195673</v>
+        <v>7.34209947107491</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.656764827114827</v>
+        <v>0.656764827176862</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0495691252876188</v>
+        <v>0.0495691252977727</v>
       </c>
       <c r="I128" t="e">
         <v>#NUM!</v>
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.57046665569595</v>
+        <v>-5.57046665382957</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -4963,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.525522596283787</v>
+        <v>0.525522596281565</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0484371686370213</v>
+        <v>0.0484371686400236</v>
       </c>
       <c r="I129" t="e">
         <v>#NUM!</v>
@@ -4975,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.98020395084547</v>
+        <v>-6.98020395042918</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -5001,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0.851884282727534</v>
+        <v>0.851884282746228</v>
       </c>
       <c r="H130" t="n">
-        <v>0.0804141515753738</v>
+        <v>0.0804141515823267</v>
       </c>
       <c r="I130" t="e">
         <v>#NUM!</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>-1.6982203913314</v>
+        <v>-1.69822039098935</v>
       </c>
       <c r="L130" t="n">
         <v>1</v>
@@ -5039,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.832912860741082</v>
+        <v>0.832912860743127</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0772032439780711</v>
+        <v>0.0772032439831388</v>
       </c>
       <c r="I131" t="e">
         <v>#NUM!</v>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>-1.97243442235871</v>
+        <v>-1.97243442220759</v>
       </c>
       <c r="L131" t="n">
         <v>1</v>
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.544229115822342</v>
+        <v>0.544229115875209</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0405191110878029</v>
+        <v>0.0405191110963359</v>
       </c>
       <c r="I132" t="e">
         <v>#NUM!</v>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>-8.17147256241829</v>
+        <v>-8.17147256018649</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.435475053036271</v>
+        <v>0.4354750530356</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0397813466419573</v>
+        <v>0.039781346644576</v>
       </c>
       <c r="I133" t="e">
         <v>#NUM!</v>
@@ -5127,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>-9.10019844963145</v>
+        <v>-9.10019844903527</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -5153,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.504312093478469</v>
+        <v>0.504312093469808</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0564585561414966</v>
+        <v>0.0564585561365325</v>
       </c>
       <c r="I134" t="e">
         <v>#NUM!</v>
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>-6.11478392126892</v>
+        <v>-6.11478392185495</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
@@ -5191,10 +5191,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.460514655430947</v>
+        <v>0.460514655433304</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0487975229268272</v>
+        <v>0.0487975229296668</v>
       </c>
       <c r="I135" t="e">
         <v>#NUM!</v>
@@ -5203,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.31774736266344</v>
+        <v>-7.31774736222676</v>
       </c>
       <c r="L135" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.729880278755993</v>
+        <v>0.729880278764607</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0776181782174944</v>
+        <v>0.0776181782223809</v>
       </c>
       <c r="I137" t="e">
         <v>#NUM!</v>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>-2.96091563697038</v>
+        <v>-2.96091563670794</v>
       </c>
       <c r="L137" t="n">
         <v>0.469</v>
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.417898939469722</v>
+        <v>0.417898939463668</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0464968868224725</v>
+        <v>0.0464968868184691</v>
       </c>
       <c r="I138" t="e">
         <v>#NUM!</v>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.84188767446679</v>
+        <v>-7.84188767515858</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.381606129623924</v>
+        <v>0.381606129626903</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0401654606529056</v>
+        <v>0.0401654606553792</v>
       </c>
       <c r="I139" t="e">
         <v>#NUM!</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.15280119387308</v>
+        <v>-9.1528011933067</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -5371,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.559967186994062</v>
+        <v>0.559967186969149</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0609250618643726</v>
+        <v>0.0609250618544619</v>
       </c>
       <c r="I140" t="e">
         <v>#NUM!</v>
@@ -5383,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>-5.32969739975576</v>
+        <v>-5.32969740079455</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -5409,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.39011894110387</v>
+        <v>0.3901189411208</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0334873532324707</v>
+        <v>0.033487353236214</v>
       </c>
       <c r="I141" t="e">
         <v>#NUM!</v>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>-10.965941820349</v>
+        <v>-10.9659418190935</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -5475,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.618308490561343</v>
+        <v>0.618308490592307</v>
       </c>
       <c r="H143" t="n">
-        <v>0.053377320761345</v>
+        <v>0.0533773207674808</v>
       </c>
       <c r="I143" t="e">
         <v>#NUM!</v>
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.56908421385742</v>
+        <v>-5.56908421291603</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -5513,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.464017612523608</v>
+        <v>0.46401761250421</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0501573815850425</v>
+        <v>0.0501573815769409</v>
       </c>
       <c r="I144" t="e">
         <v>#NUM!</v>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>-7.10339968393425</v>
+        <v>-7.10339968517139</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
@@ -5551,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.323272619995813</v>
+        <v>0.323272620010711</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0274627420954394</v>
+        <v>0.0274627420986216</v>
       </c>
       <c r="I145" t="e">
         <v>#NUM!</v>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>-13.292868100798</v>
+        <v>-13.2928680993278</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -5589,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0.630945469873289</v>
+        <v>0.630945469869072</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0182531305009342</v>
+        <v>0.0182531305006612</v>
       </c>
       <c r="I146" t="e">
         <v>#NUM!</v>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>-15.9190776160157</v>
+        <v>-15.9190776163784</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -5627,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.602582653033566</v>
+        <v>0.602582653040137</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0153422796469165</v>
+        <v>0.0153422796471957</v>
       </c>
       <c r="I147" t="e">
         <v>#NUM!</v>
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>-19.8944656948968</v>
+        <v>-19.8944656943234</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -5665,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1.20678002705247</v>
+        <v>1.20678002704923</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0252774723515188</v>
+        <v>0.0252774723513906</v>
       </c>
       <c r="I148" t="e">
         <v>#NUM!</v>
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>8.97325313305902</v>
+        <v>8.97325313295211</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -5703,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.955047118659211</v>
+        <v>0.955047118676009</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0258645772188469</v>
+        <v>0.0258645772190148</v>
       </c>
       <c r="I149" t="e">
         <v>#NUM!</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>-1.6983463755943</v>
+        <v>-1.69834637496368</v>
       </c>
       <c r="L149" t="n">
         <v>1</v>
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.52283386841789</v>
+        <v>0.522833868415801</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0141458938158284</v>
+        <v>0.0141458938156214</v>
       </c>
       <c r="I150" t="e">
         <v>#NUM!</v>
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>-23.9683213141566</v>
+        <v>-23.9683213145593</v>
       </c>
       <c r="L150" t="n">
         <v>0</v>
@@ -5779,10 +5779,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.499330979569955</v>
+        <v>0.499330979576742</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0109918838313895</v>
+        <v>0.0109918838316461</v>
       </c>
       <c r="I151" t="e">
         <v>#NUM!</v>
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>-31.5485897246112</v>
+        <v>-31.5485897236861</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -5817,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.745083955087295</v>
+        <v>0.745083955084807</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0688704097008529</v>
+        <v>0.0688704097051538</v>
       </c>
       <c r="I152" t="e">
         <v>#NUM!</v>
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>-3.18347451731029</v>
+        <v>-3.18347451713699</v>
       </c>
       <c r="L152" t="n">
         <v>0.223</v>
@@ -5855,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.591527547907678</v>
+        <v>0.59152754792533</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0377260183702753</v>
+        <v>0.0377260183718564</v>
       </c>
       <c r="I153" t="e">
         <v>#NUM!</v>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>-8.23250880621333</v>
+        <v>-8.23250880564606</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
@@ -5893,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.570434621559969</v>
+        <v>0.570434621572608</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0524821796381841</v>
+        <v>0.0524821796428621</v>
       </c>
       <c r="I154" t="e">
         <v>#NUM!</v>
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>-6.10144828854646</v>
+        <v>-6.10144828789697</v>
       </c>
       <c r="L154" t="n">
         <v>0</v>
@@ -5931,10 +5931,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0.92090778222345</v>
+        <v>0.920907782237887</v>
       </c>
       <c r="H155" t="n">
-        <v>0.0846834436677906</v>
+        <v>0.0846834436747939</v>
       </c>
       <c r="I155" t="e">
         <v>#NUM!</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.896025708689697</v>
+        <v>-0.896025708459161</v>
       </c>
       <c r="L155" t="n">
         <v>1</v>
@@ -5969,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.937525628049081</v>
+        <v>0.937525628083325</v>
       </c>
       <c r="H156" t="n">
-        <v>0.059328383943552</v>
+        <v>0.0593283839462175</v>
       </c>
       <c r="I156" t="e">
         <v>#NUM!</v>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>-1.01942586572112</v>
+        <v>-1.01942586513537</v>
       </c>
       <c r="L156" t="n">
         <v>1</v>
@@ -6007,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.904094963506954</v>
+        <v>0.904094963533028</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0836523328519719</v>
+        <v>0.083652332859732</v>
       </c>
       <c r="I157" t="e">
         <v>#NUM!</v>
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>-1.08964858578596</v>
+        <v>-1.08964858540461</v>
       </c>
       <c r="L157" t="n">
         <v>1</v>
@@ -6045,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0.946649590206828</v>
+        <v>0.94664959021748</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0854924515110234</v>
+        <v>0.0854924515178276</v>
       </c>
       <c r="I158" t="e">
         <v>#NUM!</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.607086005915674</v>
+        <v>-0.607086005749599</v>
       </c>
       <c r="L158" t="n">
         <v>1</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.490170150853813</v>
+        <v>0.490170150869758</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0306662795567281</v>
+        <v>0.0306662795581112</v>
       </c>
       <c r="I159" t="e">
         <v>#NUM!</v>
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>-11.3966430493594</v>
+        <v>-11.3966430486961</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.472691467187472</v>
+        <v>0.472691467199215</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0431022175431642</v>
+        <v>0.0431022175471725</v>
       </c>
       <c r="I160" t="e">
         <v>#NUM!</v>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>-8.21752555700523</v>
+        <v>-8.21752555617274</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -6159,10 +6159,10 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.763111554367323</v>
+        <v>0.763111554381337</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0695471095540686</v>
+        <v>0.0695471095600888</v>
       </c>
       <c r="I161" t="e">
         <v>#NUM!</v>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>-2.96644984879555</v>
+        <v>-2.96644984839174</v>
       </c>
       <c r="L161" t="n">
         <v>0.461</v>
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.881464192901429</v>
+        <v>0.881464192987631</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0990083386006116</v>
+        <v>0.0990083386194748</v>
       </c>
       <c r="I162" t="e">
         <v>#NUM!</v>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>-1.12329053175302</v>
+        <v>-1.12329053077821</v>
       </c>
       <c r="L162" t="n">
         <v>1</v>
@@ -6235,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.705319974609057</v>
+        <v>0.705319974608431</v>
       </c>
       <c r="H163" t="n">
-        <v>0.012006573465501</v>
+        <v>0.0120065734651968</v>
       </c>
       <c r="I163" t="e">
         <v>#NUM!</v>
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>-20.5079179095833</v>
+        <v>-20.5079179101367</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -6273,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1.14333999130034</v>
+        <v>1.14333999132925</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0310379005586971</v>
+        <v>0.031037900559667</v>
       </c>
       <c r="I164" t="e">
         <v>#NUM!</v>
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>4.93444237379205</v>
+        <v>4.93444237469402</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -6311,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.888416098527684</v>
+        <v>0.888416098497416</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0929165792811648</v>
+        <v>0.0929165792830225</v>
       </c>
       <c r="I165" t="e">
         <v>#NUM!</v>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>-1.1312621539305</v>
+        <v>-1.13126215419509</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -6349,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.713171112018542</v>
+        <v>0.713171112074724</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0798256901550254</v>
+        <v>0.0798256901687974</v>
       </c>
       <c r="I166" t="e">
         <v>#NUM!</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>-3.02003040454852</v>
+        <v>-3.02003040356159</v>
       </c>
       <c r="L166" t="n">
         <v>0.387</v>
@@ -6387,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.570657134653547</v>
+        <v>0.570657134642188</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0083007445355511</v>
+        <v>0.00830074453527493</v>
       </c>
       <c r="I167" t="e">
         <v>#NUM!</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>-38.5651740629118</v>
+        <v>-38.5651740647956</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -6425,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.676852709060663</v>
+        <v>0.676852709051299</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0943980772330658</v>
+        <v>0.0943980772300894</v>
       </c>
       <c r="I168" t="e">
         <v>#NUM!</v>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>-2.79853889961062</v>
+        <v>-2.79853889975934</v>
       </c>
       <c r="L168" t="n">
         <v>0.785</v>
@@ -6463,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.61807082582659</v>
+        <v>0.618070825831819</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0407207744358378</v>
+        <v>0.0407207744356785</v>
       </c>
       <c r="I169" t="e">
         <v>#NUM!</v>
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>-7.30305737201055</v>
+        <v>-7.3030573719725</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -6529,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.77851768199107</v>
+        <v>0.778517681971823</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0910982787666929</v>
+        <v>0.0910982787685799</v>
       </c>
       <c r="I171" t="e">
         <v>#NUM!</v>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>-2.13958455369013</v>
+        <v>-2.13958455380419</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -6567,10 +6567,10 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.547624966596386</v>
+        <v>0.547624966578396</v>
       </c>
       <c r="H172" t="n">
-        <v>0.076201108577257</v>
+        <v>0.0762011085734174</v>
       </c>
       <c r="I172" t="e">
         <v>#NUM!</v>
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.32750089528866</v>
+        <v>-4.32750089560064</v>
       </c>
       <c r="L172" t="n">
         <v>0.002</v>
@@ -6605,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.500065983066269</v>
+        <v>0.500065983060989</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0325900661023443</v>
+        <v>0.0325900661016223</v>
       </c>
       <c r="I173" t="e">
         <v>#NUM!</v>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>-10.6337108291888</v>
+        <v>-10.6337108294742</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
@@ -6643,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.751549114929546</v>
+        <v>0.751549114898618</v>
       </c>
       <c r="H174" t="n">
-        <v>0.10292804603507</v>
+        <v>0.102928046026131</v>
       </c>
       <c r="I174" t="e">
         <v>#NUM!</v>
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>-2.08550051743769</v>
+        <v>-2.08550051783347</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -6681,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.523590581222707</v>
+        <v>0.523590581247177</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0274283570549565</v>
+        <v>0.0274283570579094</v>
       </c>
       <c r="I175" t="e">
         <v>#NUM!</v>
@@ -6693,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.3516982538247</v>
+        <v>-12.35169825218</v>
       </c>
       <c r="L175" t="n">
         <v>0</v>
@@ -6747,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.659511027819042</v>
+        <v>0.659511027827981</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0649906209857633</v>
+        <v>0.064990620990198</v>
       </c>
       <c r="I177" t="e">
         <v>#NUM!</v>
@@ -6759,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>-4.22408348100765</v>
+        <v>-4.22408348063912</v>
       </c>
       <c r="L177" t="n">
         <v>0.004</v>
@@ -6785,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.608060001015597</v>
+        <v>0.608060000979011</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0830805055718608</v>
+        <v>0.0830805055630682</v>
       </c>
       <c r="I178" t="e">
         <v>#NUM!</v>
@@ -6797,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>-3.64103143880243</v>
+        <v>-3.64103143940906</v>
       </c>
       <c r="L178" t="n">
         <v>0.042</v>
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.423624328770425</v>
+        <v>0.423624328782168</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0218193258912026</v>
+        <v>0.021819325893217</v>
       </c>
       <c r="I179" t="e">
         <v>#NUM!</v>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>-16.6757866730472</v>
+        <v>-16.6757866714317</v>
       </c>
       <c r="L179" t="n">
         <v>0</v>
@@ -6861,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.846811242632873</v>
+        <v>0.846811242630042</v>
       </c>
       <c r="H180" t="n">
-        <v>0.0787121193343653</v>
+        <v>0.0787121193390442</v>
       </c>
       <c r="I180" t="e">
         <v>#NUM!</v>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.788868428713</v>
+        <v>-1.78886842863665</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -6899,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.808744637324751</v>
+        <v>0.808744637336272</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0733911383796918</v>
+        <v>0.0733911383856612</v>
       </c>
       <c r="I181" t="e">
         <v>#NUM!</v>
@@ -6911,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>-2.33916379021887</v>
+        <v>-2.33916378990496</v>
       </c>
       <c r="L181" t="n">
         <v>1</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>1.61965644114707</v>
+        <v>1.61965644114812</v>
       </c>
       <c r="H182" t="n">
-        <v>0.148388608254908</v>
+        <v>0.148388608264936</v>
       </c>
       <c r="I182" t="e">
         <v>#NUM!</v>
@@ -6949,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>5.26334943609088</v>
+        <v>5.26334943574572</v>
       </c>
       <c r="L182" t="n">
         <v>0</v>
@@ -6975,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1.01868907908853</v>
+        <v>1.01868907906924</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0604950234015124</v>
+        <v>0.0604950234011614</v>
       </c>
       <c r="I183" t="e">
         <v>#NUM!</v>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>0.311804855367701</v>
+        <v>0.311804855044724</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7013,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.685134257797156</v>
+        <v>0.685134257781836</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0633586339403144</v>
+        <v>0.0633586339429511</v>
       </c>
       <c r="I184" t="e">
         <v>#NUM!</v>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>-4.08905573628635</v>
+        <v>-4.08905573626655</v>
       </c>
       <c r="L184" t="n">
         <v>0.007</v>
@@ -7051,10 +7051,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.654335498803891</v>
+        <v>0.654335498800768</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0590610280022213</v>
+        <v>0.0590610280059785</v>
       </c>
       <c r="I185" t="e">
         <v>#NUM!</v>
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>-4.69898066486124</v>
+        <v>-4.69898066459276</v>
       </c>
       <c r="L185" t="n">
         <v>0</v>
@@ -7089,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.793907242088408</v>
+        <v>0.793907242114751</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0832131928513175</v>
+        <v>0.0832131928585549</v>
       </c>
       <c r="I186" t="e">
         <v>#NUM!</v>
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>-2.20187175687539</v>
+        <v>-2.20187175644037</v>
       </c>
       <c r="L186" t="n">
         <v>1</v>
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.765597779505446</v>
+        <v>0.765597779524966</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0121167974437633</v>
+        <v>0.0121167974439606</v>
       </c>
       <c r="I187" t="e">
         <v>#NUM!</v>
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>-16.8765629973555</v>
+        <v>-16.8765629959001</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1.23597854434478</v>
+        <v>1.23597854436829</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0190179257093596</v>
+        <v>0.0190179257094632</v>
       </c>
       <c r="I188" t="e">
         <v>#NUM!</v>
@@ -7177,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>13.7690159415274</v>
+        <v>13.7690159429501</v>
       </c>
       <c r="L188" t="n">
         <v>0</v>
@@ -7203,10 +7203,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.964341599267324</v>
+        <v>0.964341599259913</v>
       </c>
       <c r="H189" t="n">
-        <v>0.100717242051771</v>
+        <v>0.100717242056498</v>
       </c>
       <c r="I189" t="e">
         <v>#NUM!</v>
@@ -7215,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.347655920942992</v>
+        <v>-0.347655920997586</v>
       </c>
       <c r="L189" t="n">
         <v>1</v>
@@ -7241,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>0.64233092533922</v>
+        <v>0.642330925348319</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0670546924226365</v>
+        <v>0.0670546924272509</v>
       </c>
       <c r="I190" t="e">
         <v>#NUM!</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>-4.24025273150399</v>
+        <v>-4.24025273113657</v>
       </c>
       <c r="L190" t="n">
         <v>0.003</v>
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0.619426431800484</v>
+        <v>0.619426431804498</v>
       </c>
       <c r="H191" t="n">
-        <v>0.00835245121817608</v>
+        <v>0.00835245121831939</v>
       </c>
       <c r="I191" t="e">
         <v>#NUM!</v>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>-35.5202689021657</v>
+        <v>-35.5202689013059</v>
       </c>
       <c r="L191" t="n">
         <v>0</v>
